--- a/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.400377742629757</v>
+        <v>2.400377742629644</v>
       </c>
       <c r="C2">
         <v>2.272754852658181</v>
       </c>
       <c r="D2">
-        <v>0.3763170507792211</v>
+        <v>0.3763170507799316</v>
       </c>
       <c r="E2">
-        <v>0.5885851376231628</v>
+        <v>0.5885851376230775</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.67549473585413</v>
+        <v>9.675494735854187</v>
       </c>
       <c r="I2">
-        <v>0.2127821736140874</v>
+        <v>0.2127821736140731</v>
       </c>
       <c r="J2">
-        <v>1.046174685188603</v>
+        <v>1.046174685188547</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.019438820663709</v>
+        <v>2.019438820664021</v>
       </c>
       <c r="C3">
-        <v>1.936997601534017</v>
+        <v>1.936997601534586</v>
       </c>
       <c r="D3">
-        <v>0.3215786422317137</v>
+        <v>0.321578642231529</v>
       </c>
       <c r="E3">
-        <v>0.4994194123769304</v>
+        <v>0.4994194123768523</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.398274612823286</v>
+        <v>8.398274612823144</v>
       </c>
       <c r="I3">
-        <v>0.1801139864610377</v>
+        <v>0.1801139864610874</v>
       </c>
       <c r="J3">
-        <v>0.8855803820750339</v>
+        <v>0.885580382074977</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.798154779308106</v>
+        <v>1.798154779307566</v>
       </c>
       <c r="C4">
-        <v>1.739072399033603</v>
+        <v>1.739072399033091</v>
       </c>
       <c r="D4">
-        <v>0.2893774641091937</v>
+        <v>0.2893774641091369</v>
       </c>
       <c r="E4">
-        <v>0.4470647210075924</v>
+        <v>0.4470647210076919</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.640182874496048</v>
+        <v>7.640182874495991</v>
       </c>
       <c r="I4">
-        <v>0.1609511790221596</v>
+        <v>0.1609511790222058</v>
       </c>
       <c r="J4">
-        <v>0.7916646372922997</v>
+        <v>0.7916646372922571</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.710594642172794</v>
+        <v>1.710594642172765</v>
       </c>
       <c r="C5">
-        <v>1.660113410604765</v>
+        <v>1.66011341060522</v>
       </c>
       <c r="D5">
-        <v>0.2765472393637083</v>
+        <v>0.2765472393634951</v>
       </c>
       <c r="E5">
-        <v>0.4262214814741725</v>
+        <v>0.4262214814742507</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.336595703994988</v>
+        <v>7.336595703994931</v>
       </c>
       <c r="I5">
-        <v>0.1533254907912429</v>
+        <v>0.1533254907912962</v>
       </c>
       <c r="J5">
-        <v>0.7543637911481227</v>
+        <v>0.7543637911481369</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.696198817447595</v>
+        <v>1.696198817447623</v>
       </c>
       <c r="C6">
-        <v>1.64709512189728</v>
+        <v>1.647095121896484</v>
       </c>
       <c r="D6">
-        <v>0.2744328075579858</v>
+        <v>0.2744328075580427</v>
       </c>
       <c r="E6">
-        <v>0.4227873152497565</v>
+        <v>0.422787315249721</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>7.286475709360559</v>
       </c>
       <c r="I6">
-        <v>0.1520692359012337</v>
+        <v>0.152069235901287</v>
       </c>
       <c r="J6">
-        <v>0.7482232080740587</v>
+        <v>0.7482232080741014</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.796963990595088</v>
+        <v>1.796963990594747</v>
       </c>
       <c r="C7">
-        <v>1.73800110550053</v>
+        <v>1.738001105499677</v>
       </c>
       <c r="D7">
-        <v>0.2892033233415674</v>
+        <v>0.2892033233414111</v>
       </c>
       <c r="E7">
-        <v>0.4467817624625852</v>
+        <v>0.4467817624624999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.636068443662737</v>
+        <v>7.636068443662595</v>
       </c>
       <c r="I7">
-        <v>0.1608476441153286</v>
+        <v>0.1608476441153535</v>
       </c>
       <c r="J7">
-        <v>0.791157904847978</v>
+        <v>0.7911579048479211</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.266043341177351</v>
+        <v>2.266043341177465</v>
       </c>
       <c r="C8">
-        <v>2.155031411593313</v>
+        <v>2.155031411593768</v>
       </c>
       <c r="D8">
-        <v>0.3571099142570375</v>
+        <v>0.3571099142582739</v>
       </c>
       <c r="E8">
-        <v>0.5572711705394298</v>
+        <v>0.5572711705393942</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.228879068878541</v>
+        <v>9.228879068878371</v>
       </c>
       <c r="I8">
-        <v>0.2013045498883415</v>
+        <v>0.2013045498883521</v>
       </c>
       <c r="J8">
-        <v>0.9896903986730763</v>
+        <v>0.9896903986730905</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.318032274123311</v>
+        <v>3.318032274123425</v>
       </c>
       <c r="C9">
-        <v>3.059428225250088</v>
+        <v>3.059428225251736</v>
       </c>
       <c r="D9">
-        <v>0.5049990243177263</v>
+        <v>0.5049990243178115</v>
       </c>
       <c r="E9">
-        <v>0.7992661108405912</v>
+        <v>0.7992661108404633</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.62911496239172</v>
+        <v>12.62911496239161</v>
       </c>
       <c r="I9">
-        <v>0.2901641021874042</v>
+        <v>0.2901641021873544</v>
       </c>
       <c r="J9">
-        <v>1.428201110060471</v>
+        <v>1.428201110060527</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.232393170959028</v>
+        <v>4.232393170959483</v>
       </c>
       <c r="C10">
-        <v>3.816839369804939</v>
+        <v>3.816839369806019</v>
       </c>
       <c r="D10">
-        <v>0.6293198187686357</v>
+        <v>0.6293198187691473</v>
       </c>
       <c r="E10">
-        <v>1.004555869422674</v>
+        <v>1.004555869422774</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.42515095308596</v>
+        <v>15.42515095308573</v>
       </c>
       <c r="I10">
-        <v>0.365876152062107</v>
+        <v>0.3658761520621709</v>
       </c>
       <c r="J10">
-        <v>1.803072087588902</v>
+        <v>1.803072087588859</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.700191594769421</v>
+        <v>4.700191594769478</v>
       </c>
       <c r="C11">
-        <v>4.195370698023339</v>
+        <v>4.195370698023737</v>
       </c>
       <c r="D11">
-        <v>0.6915727969494867</v>
+        <v>0.6915727969496572</v>
       </c>
       <c r="E11">
-        <v>1.108107522715954</v>
+        <v>1.108107522716011</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.80536811890829</v>
+        <v>16.80536811890789</v>
       </c>
       <c r="I11">
-        <v>0.4041985524463669</v>
+        <v>0.4041985524463314</v>
       </c>
       <c r="J11">
-        <v>1.992898446092894</v>
+        <v>1.992898446092852</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.887512664749465</v>
+        <v>4.887512664749295</v>
       </c>
       <c r="C12">
-        <v>4.345360683344666</v>
+        <v>4.345360683345461</v>
       </c>
       <c r="D12">
-        <v>0.7162592460487645</v>
+        <v>0.7162592460488213</v>
       </c>
       <c r="E12">
-        <v>1.149323314889074</v>
+        <v>1.149323314889003</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.34908089748251</v>
+        <v>17.34908089748245</v>
       </c>
       <c r="I12">
-        <v>0.4194781692571041</v>
+        <v>0.4194781692571468</v>
       </c>
       <c r="J12">
-        <v>2.068564271899916</v>
+        <v>2.068564271899945</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.846660899295841</v>
+        <v>4.846660899295102</v>
       </c>
       <c r="C13">
-        <v>4.312725656702696</v>
+        <v>4.312725656702639</v>
       </c>
       <c r="D13">
-        <v>0.7108870563979508</v>
+        <v>0.7108870563982919</v>
       </c>
       <c r="E13">
-        <v>1.140346447908243</v>
+        <v>1.1403464479083</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.23093412561963</v>
+        <v>17.23093412561968</v>
       </c>
       <c r="I13">
-        <v>0.4161489249001349</v>
+        <v>0.4161489249001065</v>
       </c>
       <c r="J13">
-        <v>2.052079224269505</v>
+        <v>2.052079224269491</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.715378877907142</v>
+        <v>4.715378877907028</v>
       </c>
       <c r="C14">
-        <v>4.207564438999157</v>
+        <v>4.207564438999611</v>
       </c>
       <c r="D14">
-        <v>0.6935793423194525</v>
+        <v>0.6935793423193388</v>
       </c>
       <c r="E14">
-        <v>1.11145427833462</v>
+        <v>1.111454278334662</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.84963824774485</v>
+        <v>16.84963824774422</v>
       </c>
       <c r="I14">
-        <v>0.4054386953696465</v>
+        <v>0.4054386953695968</v>
       </c>
       <c r="J14">
-        <v>1.999040380108028</v>
+        <v>1.999040380107985</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.636390494959642</v>
+        <v>4.636390494960096</v>
       </c>
       <c r="C15">
-        <v>4.144080850161515</v>
+        <v>4.144080850160378</v>
       </c>
       <c r="D15">
-        <v>0.6831335498509361</v>
+        <v>0.6831335498513056</v>
       </c>
       <c r="E15">
-        <v>1.094037876542515</v>
+        <v>1.0940378765427</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.61902598028973</v>
+        <v>16.61902598028968</v>
       </c>
       <c r="I15">
-        <v>0.3989861324268205</v>
+        <v>0.3989861324267565</v>
       </c>
       <c r="J15">
-        <v>1.967082364559815</v>
+        <v>1.967082364559886</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.20307281951483</v>
+        <v>4.203072819514375</v>
       </c>
       <c r="C16">
-        <v>3.792920214918126</v>
+        <v>3.792920214916649</v>
       </c>
       <c r="D16">
-        <v>0.6253885729730371</v>
+        <v>0.6253885729723265</v>
       </c>
       <c r="E16">
         <v>0.9980344154936347</v>
@@ -968,7 +968,7 @@
         <v>0.3634657813666919</v>
       </c>
       <c r="J16">
-        <v>1.791131896397161</v>
+        <v>1.791131896397218</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.952141329000881</v>
+        <v>3.952141329001165</v>
       </c>
       <c r="C17">
-        <v>3.587246758735887</v>
+        <v>3.587246758736228</v>
       </c>
       <c r="D17">
-        <v>0.5915980427976706</v>
+        <v>0.5915980427974432</v>
       </c>
       <c r="E17">
-        <v>0.9420635529545081</v>
+        <v>0.9420635529545223</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.58242684693928</v>
+        <v>14.58242684693892</v>
       </c>
       <c r="I17">
-        <v>0.3427931345734478</v>
+        <v>0.3427931345734905</v>
       </c>
       <c r="J17">
         <v>1.68873298806713</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.812481950657968</v>
+        <v>3.812481950658025</v>
       </c>
       <c r="C18">
         <v>3.47201119787394</v>
       </c>
       <c r="D18">
-        <v>0.5726763891151734</v>
+        <v>0.5726763891163387</v>
       </c>
       <c r="E18">
-        <v>0.91078531022427</v>
+        <v>0.9107853102241847</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.15787074899052</v>
+        <v>14.15787074899043</v>
       </c>
       <c r="I18">
-        <v>0.3312517371616366</v>
+        <v>0.3312517371616082</v>
       </c>
       <c r="J18">
-        <v>1.6315740329253</v>
+        <v>1.631574032925357</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>3.765931585303861</v>
       </c>
       <c r="C19">
-        <v>3.433477386089351</v>
+        <v>3.43347738608901</v>
       </c>
       <c r="D19">
         <v>0.5663509262849118</v>
@@ -1079,10 +1079,10 @@
         <v>14.01566673219901</v>
       </c>
       <c r="I19">
-        <v>0.3273988779686263</v>
+        <v>0.3273988779685411</v>
       </c>
       <c r="J19">
-        <v>1.612494988348288</v>
+        <v>1.612494988348232</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.978353824016949</v>
+        <v>3.978353824016608</v>
       </c>
       <c r="C20">
-        <v>3.608813523793231</v>
+        <v>3.608813523791184</v>
       </c>
       <c r="D20">
-        <v>0.5951401686592419</v>
+        <v>0.595140168659583</v>
       </c>
       <c r="E20">
-        <v>0.9479238415022166</v>
+        <v>0.9479238415024014</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.66176665920807</v>
+        <v>14.66176665920824</v>
       </c>
       <c r="I20">
-        <v>0.3449564063108923</v>
+        <v>0.3449564063109491</v>
       </c>
       <c r="J20">
-        <v>1.699447589007036</v>
+        <v>1.699447589007079</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.753635866816182</v>
+        <v>4.753635866816069</v>
       </c>
       <c r="C21">
-        <v>4.238254610825095</v>
+        <v>4.238254610825777</v>
       </c>
       <c r="D21">
-        <v>0.6986298832601108</v>
+        <v>0.6986298832604234</v>
       </c>
       <c r="E21">
-        <v>1.119880750792248</v>
+        <v>1.119880750792262</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.96100771595053</v>
+        <v>16.96100771595059</v>
       </c>
       <c r="I21">
-        <v>0.4085615783211693</v>
+        <v>0.4085615783210486</v>
       </c>
       <c r="J21">
-        <v>2.01450631259361</v>
+        <v>2.014506312593582</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.321903893131889</v>
+        <v>5.321903893131491</v>
       </c>
       <c r="C22">
-        <v>4.689838700819223</v>
+        <v>4.689838700819621</v>
       </c>
       <c r="D22">
-        <v>0.7729934763878816</v>
+        <v>0.7729934763874837</v>
       </c>
       <c r="E22">
-        <v>1.244392665573571</v>
+        <v>1.244392665573599</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.59087238833786</v>
+        <v>18.59087238833797</v>
       </c>
       <c r="I22">
-        <v>0.4547827473037884</v>
+        <v>0.4547827473038453</v>
       </c>
       <c r="J22">
-        <v>2.243300791893716</v>
+        <v>2.243300791893702</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.01172958754205</v>
+        <v>5.01172958754222</v>
       </c>
       <c r="C23">
-        <v>4.444337811792138</v>
+        <v>4.444337811792479</v>
       </c>
       <c r="D23">
-        <v>0.7325551969186961</v>
+        <v>0.7325551969186108</v>
       </c>
       <c r="E23">
-        <v>1.17657999633775</v>
+        <v>1.176579996337836</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.70687293330883</v>
+        <v>17.70687293330906</v>
       </c>
       <c r="I23">
-        <v>0.4295913960439037</v>
+        <v>0.429591396043989</v>
       </c>
       <c r="J23">
-        <v>2.118634176298286</v>
+        <v>2.118634176298372</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.966489000493198</v>
+        <v>3.966489000492913</v>
       </c>
       <c r="C24">
-        <v>3.59905393899885</v>
+        <v>3.599053938997599</v>
       </c>
       <c r="D24">
-        <v>0.5935372209114007</v>
+        <v>0.593537220910946</v>
       </c>
       <c r="E24">
-        <v>0.9452716385370081</v>
+        <v>0.9452716385371929</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.62586768608389</v>
+        <v>14.62586768608401</v>
       </c>
       <c r="I24">
-        <v>0.3439773353903846</v>
+        <v>0.3439773353904343</v>
       </c>
       <c r="J24">
         <v>1.694598256338082</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.014064915421272</v>
+        <v>3.014064915421613</v>
       </c>
       <c r="C25">
-        <v>2.802028753472428</v>
+        <v>2.802028753471461</v>
       </c>
       <c r="D25">
-        <v>0.4628372922950632</v>
+        <v>0.4628372922949211</v>
       </c>
       <c r="E25">
-        <v>0.7300540702529759</v>
+        <v>0.7300540702529474</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.66839929997593</v>
+        <v>11.66839929997556</v>
       </c>
       <c r="I25">
-        <v>0.2647100853749507</v>
+        <v>0.2647100853749151</v>
       </c>
       <c r="J25">
-        <v>1.302352813522219</v>
+        <v>1.302352813522134</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.400377742629644</v>
+        <v>2.400377742629757</v>
       </c>
       <c r="C2">
         <v>2.272754852658181</v>
       </c>
       <c r="D2">
-        <v>0.3763170507799316</v>
+        <v>0.3763170507792211</v>
       </c>
       <c r="E2">
-        <v>0.5885851376230775</v>
+        <v>0.5885851376231628</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.675494735854187</v>
+        <v>9.67549473585413</v>
       </c>
       <c r="I2">
-        <v>0.2127821736140731</v>
+        <v>0.2127821736140874</v>
       </c>
       <c r="J2">
-        <v>1.046174685188547</v>
+        <v>1.046174685188603</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.019438820664021</v>
+        <v>2.019438820663709</v>
       </c>
       <c r="C3">
-        <v>1.936997601534586</v>
+        <v>1.936997601534017</v>
       </c>
       <c r="D3">
-        <v>0.321578642231529</v>
+        <v>0.3215786422317137</v>
       </c>
       <c r="E3">
-        <v>0.4994194123768523</v>
+        <v>0.4994194123769304</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.398274612823144</v>
+        <v>8.398274612823286</v>
       </c>
       <c r="I3">
-        <v>0.1801139864610874</v>
+        <v>0.1801139864610377</v>
       </c>
       <c r="J3">
-        <v>0.885580382074977</v>
+        <v>0.8855803820750339</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.798154779307566</v>
+        <v>1.798154779308106</v>
       </c>
       <c r="C4">
-        <v>1.739072399033091</v>
+        <v>1.739072399033603</v>
       </c>
       <c r="D4">
-        <v>0.2893774641091369</v>
+        <v>0.2893774641091937</v>
       </c>
       <c r="E4">
-        <v>0.4470647210076919</v>
+        <v>0.4470647210075924</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.640182874495991</v>
+        <v>7.640182874496048</v>
       </c>
       <c r="I4">
-        <v>0.1609511790222058</v>
+        <v>0.1609511790221596</v>
       </c>
       <c r="J4">
-        <v>0.7916646372922571</v>
+        <v>0.7916646372922997</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.710594642172765</v>
+        <v>1.710594642172794</v>
       </c>
       <c r="C5">
-        <v>1.66011341060522</v>
+        <v>1.660113410604765</v>
       </c>
       <c r="D5">
-        <v>0.2765472393634951</v>
+        <v>0.2765472393637083</v>
       </c>
       <c r="E5">
-        <v>0.4262214814742507</v>
+        <v>0.4262214814741725</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.336595703994931</v>
+        <v>7.336595703994988</v>
       </c>
       <c r="I5">
-        <v>0.1533254907912962</v>
+        <v>0.1533254907912429</v>
       </c>
       <c r="J5">
-        <v>0.7543637911481369</v>
+        <v>0.7543637911481227</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.696198817447623</v>
+        <v>1.696198817447595</v>
       </c>
       <c r="C6">
-        <v>1.647095121896484</v>
+        <v>1.64709512189728</v>
       </c>
       <c r="D6">
-        <v>0.2744328075580427</v>
+        <v>0.2744328075579858</v>
       </c>
       <c r="E6">
-        <v>0.422787315249721</v>
+        <v>0.4227873152497565</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>7.286475709360559</v>
       </c>
       <c r="I6">
-        <v>0.152069235901287</v>
+        <v>0.1520692359012337</v>
       </c>
       <c r="J6">
-        <v>0.7482232080741014</v>
+        <v>0.7482232080740587</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.796963990594747</v>
+        <v>1.796963990595088</v>
       </c>
       <c r="C7">
-        <v>1.738001105499677</v>
+        <v>1.73800110550053</v>
       </c>
       <c r="D7">
-        <v>0.2892033233414111</v>
+        <v>0.2892033233415674</v>
       </c>
       <c r="E7">
-        <v>0.4467817624624999</v>
+        <v>0.4467817624625852</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.636068443662595</v>
+        <v>7.636068443662737</v>
       </c>
       <c r="I7">
-        <v>0.1608476441153535</v>
+        <v>0.1608476441153286</v>
       </c>
       <c r="J7">
-        <v>0.7911579048479211</v>
+        <v>0.791157904847978</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.266043341177465</v>
+        <v>2.266043341177351</v>
       </c>
       <c r="C8">
-        <v>2.155031411593768</v>
+        <v>2.155031411593313</v>
       </c>
       <c r="D8">
-        <v>0.3571099142582739</v>
+        <v>0.3571099142570375</v>
       </c>
       <c r="E8">
-        <v>0.5572711705393942</v>
+        <v>0.5572711705394298</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.228879068878371</v>
+        <v>9.228879068878541</v>
       </c>
       <c r="I8">
-        <v>0.2013045498883521</v>
+        <v>0.2013045498883415</v>
       </c>
       <c r="J8">
-        <v>0.9896903986730905</v>
+        <v>0.9896903986730763</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.318032274123425</v>
+        <v>3.318032274123311</v>
       </c>
       <c r="C9">
-        <v>3.059428225251736</v>
+        <v>3.059428225250088</v>
       </c>
       <c r="D9">
-        <v>0.5049990243178115</v>
+        <v>0.5049990243177263</v>
       </c>
       <c r="E9">
-        <v>0.7992661108404633</v>
+        <v>0.7992661108405912</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.62911496239161</v>
+        <v>12.62911496239172</v>
       </c>
       <c r="I9">
-        <v>0.2901641021873544</v>
+        <v>0.2901641021874042</v>
       </c>
       <c r="J9">
-        <v>1.428201110060527</v>
+        <v>1.428201110060471</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.232393170959483</v>
+        <v>4.232393170959028</v>
       </c>
       <c r="C10">
-        <v>3.816839369806019</v>
+        <v>3.816839369804939</v>
       </c>
       <c r="D10">
-        <v>0.6293198187691473</v>
+        <v>0.6293198187686357</v>
       </c>
       <c r="E10">
-        <v>1.004555869422774</v>
+        <v>1.004555869422674</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.42515095308573</v>
+        <v>15.42515095308596</v>
       </c>
       <c r="I10">
-        <v>0.3658761520621709</v>
+        <v>0.365876152062107</v>
       </c>
       <c r="J10">
-        <v>1.803072087588859</v>
+        <v>1.803072087588902</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.700191594769478</v>
+        <v>4.700191594769421</v>
       </c>
       <c r="C11">
-        <v>4.195370698023737</v>
+        <v>4.195370698023339</v>
       </c>
       <c r="D11">
-        <v>0.6915727969496572</v>
+        <v>0.6915727969494867</v>
       </c>
       <c r="E11">
-        <v>1.108107522716011</v>
+        <v>1.108107522715954</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.80536811890789</v>
+        <v>16.80536811890829</v>
       </c>
       <c r="I11">
-        <v>0.4041985524463314</v>
+        <v>0.4041985524463669</v>
       </c>
       <c r="J11">
-        <v>1.992898446092852</v>
+        <v>1.992898446092894</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.887512664749295</v>
+        <v>4.887512664749465</v>
       </c>
       <c r="C12">
-        <v>4.345360683345461</v>
+        <v>4.345360683344666</v>
       </c>
       <c r="D12">
-        <v>0.7162592460488213</v>
+        <v>0.7162592460487645</v>
       </c>
       <c r="E12">
-        <v>1.149323314889003</v>
+        <v>1.149323314889074</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.34908089748245</v>
+        <v>17.34908089748251</v>
       </c>
       <c r="I12">
-        <v>0.4194781692571468</v>
+        <v>0.4194781692571041</v>
       </c>
       <c r="J12">
-        <v>2.068564271899945</v>
+        <v>2.068564271899916</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.846660899295102</v>
+        <v>4.846660899295841</v>
       </c>
       <c r="C13">
-        <v>4.312725656702639</v>
+        <v>4.312725656702696</v>
       </c>
       <c r="D13">
-        <v>0.7108870563982919</v>
+        <v>0.7108870563979508</v>
       </c>
       <c r="E13">
-        <v>1.1403464479083</v>
+        <v>1.140346447908243</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.23093412561968</v>
+        <v>17.23093412561963</v>
       </c>
       <c r="I13">
-        <v>0.4161489249001065</v>
+        <v>0.4161489249001349</v>
       </c>
       <c r="J13">
-        <v>2.052079224269491</v>
+        <v>2.052079224269505</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.715378877907028</v>
+        <v>4.715378877907142</v>
       </c>
       <c r="C14">
-        <v>4.207564438999611</v>
+        <v>4.207564438999157</v>
       </c>
       <c r="D14">
-        <v>0.6935793423193388</v>
+        <v>0.6935793423194525</v>
       </c>
       <c r="E14">
-        <v>1.111454278334662</v>
+        <v>1.11145427833462</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.84963824774422</v>
+        <v>16.84963824774485</v>
       </c>
       <c r="I14">
-        <v>0.4054386953695968</v>
+        <v>0.4054386953696465</v>
       </c>
       <c r="J14">
-        <v>1.999040380107985</v>
+        <v>1.999040380108028</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.636390494960096</v>
+        <v>4.636390494959642</v>
       </c>
       <c r="C15">
-        <v>4.144080850160378</v>
+        <v>4.144080850161515</v>
       </c>
       <c r="D15">
-        <v>0.6831335498513056</v>
+        <v>0.6831335498509361</v>
       </c>
       <c r="E15">
-        <v>1.0940378765427</v>
+        <v>1.094037876542515</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.61902598028968</v>
+        <v>16.61902598028973</v>
       </c>
       <c r="I15">
-        <v>0.3989861324267565</v>
+        <v>0.3989861324268205</v>
       </c>
       <c r="J15">
-        <v>1.967082364559886</v>
+        <v>1.967082364559815</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.203072819514375</v>
+        <v>4.20307281951483</v>
       </c>
       <c r="C16">
-        <v>3.792920214916649</v>
+        <v>3.792920214918126</v>
       </c>
       <c r="D16">
-        <v>0.6253885729723265</v>
+        <v>0.6253885729730371</v>
       </c>
       <c r="E16">
         <v>0.9980344154936347</v>
@@ -968,7 +968,7 @@
         <v>0.3634657813666919</v>
       </c>
       <c r="J16">
-        <v>1.791131896397218</v>
+        <v>1.791131896397161</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.952141329001165</v>
+        <v>3.952141329000881</v>
       </c>
       <c r="C17">
-        <v>3.587246758736228</v>
+        <v>3.587246758735887</v>
       </c>
       <c r="D17">
-        <v>0.5915980427974432</v>
+        <v>0.5915980427976706</v>
       </c>
       <c r="E17">
-        <v>0.9420635529545223</v>
+        <v>0.9420635529545081</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.58242684693892</v>
+        <v>14.58242684693928</v>
       </c>
       <c r="I17">
-        <v>0.3427931345734905</v>
+        <v>0.3427931345734478</v>
       </c>
       <c r="J17">
         <v>1.68873298806713</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.812481950658025</v>
+        <v>3.812481950657968</v>
       </c>
       <c r="C18">
         <v>3.47201119787394</v>
       </c>
       <c r="D18">
-        <v>0.5726763891163387</v>
+        <v>0.5726763891151734</v>
       </c>
       <c r="E18">
-        <v>0.9107853102241847</v>
+        <v>0.91078531022427</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.15787074899043</v>
+        <v>14.15787074899052</v>
       </c>
       <c r="I18">
-        <v>0.3312517371616082</v>
+        <v>0.3312517371616366</v>
       </c>
       <c r="J18">
-        <v>1.631574032925357</v>
+        <v>1.6315740329253</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>3.765931585303861</v>
       </c>
       <c r="C19">
-        <v>3.43347738608901</v>
+        <v>3.433477386089351</v>
       </c>
       <c r="D19">
         <v>0.5663509262849118</v>
@@ -1079,10 +1079,10 @@
         <v>14.01566673219901</v>
       </c>
       <c r="I19">
-        <v>0.3273988779685411</v>
+        <v>0.3273988779686263</v>
       </c>
       <c r="J19">
-        <v>1.612494988348232</v>
+        <v>1.612494988348288</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.978353824016608</v>
+        <v>3.978353824016949</v>
       </c>
       <c r="C20">
-        <v>3.608813523791184</v>
+        <v>3.608813523793231</v>
       </c>
       <c r="D20">
-        <v>0.595140168659583</v>
+        <v>0.5951401686592419</v>
       </c>
       <c r="E20">
-        <v>0.9479238415024014</v>
+        <v>0.9479238415022166</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.66176665920824</v>
+        <v>14.66176665920807</v>
       </c>
       <c r="I20">
-        <v>0.3449564063109491</v>
+        <v>0.3449564063108923</v>
       </c>
       <c r="J20">
-        <v>1.699447589007079</v>
+        <v>1.699447589007036</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.753635866816069</v>
+        <v>4.753635866816182</v>
       </c>
       <c r="C21">
-        <v>4.238254610825777</v>
+        <v>4.238254610825095</v>
       </c>
       <c r="D21">
-        <v>0.6986298832604234</v>
+        <v>0.6986298832601108</v>
       </c>
       <c r="E21">
-        <v>1.119880750792262</v>
+        <v>1.119880750792248</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.96100771595059</v>
+        <v>16.96100771595053</v>
       </c>
       <c r="I21">
-        <v>0.4085615783210486</v>
+        <v>0.4085615783211693</v>
       </c>
       <c r="J21">
-        <v>2.014506312593582</v>
+        <v>2.01450631259361</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.321903893131491</v>
+        <v>5.321903893131889</v>
       </c>
       <c r="C22">
-        <v>4.689838700819621</v>
+        <v>4.689838700819223</v>
       </c>
       <c r="D22">
-        <v>0.7729934763874837</v>
+        <v>0.7729934763878816</v>
       </c>
       <c r="E22">
-        <v>1.244392665573599</v>
+        <v>1.244392665573571</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.59087238833797</v>
+        <v>18.59087238833786</v>
       </c>
       <c r="I22">
-        <v>0.4547827473038453</v>
+        <v>0.4547827473037884</v>
       </c>
       <c r="J22">
-        <v>2.243300791893702</v>
+        <v>2.243300791893716</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.01172958754222</v>
+        <v>5.01172958754205</v>
       </c>
       <c r="C23">
-        <v>4.444337811792479</v>
+        <v>4.444337811792138</v>
       </c>
       <c r="D23">
-        <v>0.7325551969186108</v>
+        <v>0.7325551969186961</v>
       </c>
       <c r="E23">
-        <v>1.176579996337836</v>
+        <v>1.17657999633775</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.70687293330906</v>
+        <v>17.70687293330883</v>
       </c>
       <c r="I23">
-        <v>0.429591396043989</v>
+        <v>0.4295913960439037</v>
       </c>
       <c r="J23">
-        <v>2.118634176298372</v>
+        <v>2.118634176298286</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.966489000492913</v>
+        <v>3.966489000493198</v>
       </c>
       <c r="C24">
-        <v>3.599053938997599</v>
+        <v>3.59905393899885</v>
       </c>
       <c r="D24">
-        <v>0.593537220910946</v>
+        <v>0.5935372209114007</v>
       </c>
       <c r="E24">
-        <v>0.9452716385371929</v>
+        <v>0.9452716385370081</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.62586768608401</v>
+        <v>14.62586768608389</v>
       </c>
       <c r="I24">
-        <v>0.3439773353904343</v>
+        <v>0.3439773353903846</v>
       </c>
       <c r="J24">
         <v>1.694598256338082</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.014064915421613</v>
+        <v>3.014064915421272</v>
       </c>
       <c r="C25">
-        <v>2.802028753471461</v>
+        <v>2.802028753472428</v>
       </c>
       <c r="D25">
-        <v>0.4628372922949211</v>
+        <v>0.4628372922950632</v>
       </c>
       <c r="E25">
-        <v>0.7300540702529474</v>
+        <v>0.7300540702529759</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.66839929997556</v>
+        <v>11.66839929997593</v>
       </c>
       <c r="I25">
-        <v>0.2647100853749151</v>
+        <v>0.2647100853749507</v>
       </c>
       <c r="J25">
-        <v>1.302352813522134</v>
+        <v>1.302352813522219</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.400377742629757</v>
+        <v>2.366257278728085</v>
       </c>
       <c r="C2">
-        <v>2.272754852658181</v>
+        <v>2.254863053591691</v>
       </c>
       <c r="D2">
-        <v>0.3763170507792211</v>
+        <v>0.373946447149109</v>
       </c>
       <c r="E2">
-        <v>0.5885851376231628</v>
+        <v>0.584601673626068</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007665538678249724</v>
       </c>
       <c r="H2">
-        <v>9.67549473585413</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2127821736140874</v>
+        <v>9.677244343217552</v>
       </c>
       <c r="J2">
-        <v>1.046174685188603</v>
+        <v>0.211307882348386</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.034025555025295</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.019438820663709</v>
+        <v>1.992461108577373</v>
       </c>
       <c r="C3">
-        <v>1.936997601534017</v>
+        <v>1.92390695191574</v>
       </c>
       <c r="D3">
-        <v>0.3215786422317137</v>
+        <v>0.3196521649890514</v>
       </c>
       <c r="E3">
-        <v>0.4994194123769304</v>
+        <v>0.4961733457075042</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000782936226713213</v>
       </c>
       <c r="H3">
-        <v>8.398274612823286</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1801139864610377</v>
+        <v>8.408943159302822</v>
       </c>
       <c r="J3">
-        <v>0.8855803820750339</v>
+        <v>0.1789125719048634</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8761732100583828</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.798154779308106</v>
+        <v>1.775405703346536</v>
       </c>
       <c r="C4">
-        <v>1.739072399033603</v>
+        <v>1.728812634039571</v>
       </c>
       <c r="D4">
-        <v>0.2893774641091937</v>
+        <v>0.2877020705856097</v>
       </c>
       <c r="E4">
-        <v>0.4470647210075924</v>
+        <v>0.4442322509902752</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000793033402182064</v>
       </c>
       <c r="H4">
-        <v>7.640182874496048</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1609511790221596</v>
+        <v>7.655903920048473</v>
       </c>
       <c r="J4">
-        <v>0.7916646372922997</v>
+        <v>0.1599022743032208</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.783880137251856</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.710594642172794</v>
+        <v>1.68954220927003</v>
       </c>
       <c r="C5">
-        <v>1.660113410604765</v>
+        <v>1.650986488055139</v>
       </c>
       <c r="D5">
-        <v>0.2765472393637083</v>
+        <v>0.2749699543901727</v>
       </c>
       <c r="E5">
-        <v>0.4262214814741725</v>
+        <v>0.4235499490719974</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007971686030084943</v>
       </c>
       <c r="H5">
-        <v>7.336595703994988</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1533254907912429</v>
+        <v>7.354292637307992</v>
       </c>
       <c r="J5">
-        <v>0.7543637911481227</v>
+        <v>0.1523358191549455</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7472301064936175</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.696198817447595</v>
+        <v>1.675426829272453</v>
       </c>
       <c r="C6">
-        <v>1.64709512189728</v>
+        <v>1.638155269657545</v>
       </c>
       <c r="D6">
-        <v>0.2744328075579858</v>
+        <v>0.2728715895706841</v>
       </c>
       <c r="E6">
-        <v>0.4227873152497565</v>
+        <v>0.420142102512358</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007978567738858311</v>
       </c>
       <c r="H6">
-        <v>7.286475709360559</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1520692359012337</v>
+        <v>7.304496308800907</v>
       </c>
       <c r="J6">
-        <v>0.7482232080740587</v>
+        <v>0.1510892451391186</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7411970823553204</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.796963990595088</v>
+        <v>1.774237888766123</v>
       </c>
       <c r="C7">
-        <v>1.73800110550053</v>
+        <v>1.727756692463231</v>
       </c>
       <c r="D7">
-        <v>0.2892033233415674</v>
+        <v>0.2875292685829152</v>
       </c>
       <c r="E7">
-        <v>0.4467817624625852</v>
+        <v>0.4439514911326086</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007930890745721449</v>
       </c>
       <c r="H7">
-        <v>7.636068443662737</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1608476441153286</v>
+        <v>7.651816445806674</v>
       </c>
       <c r="J7">
-        <v>0.791157904847978</v>
+        <v>0.1597995490500672</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7833822185492778</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.266043341177351</v>
+        <v>2.234427119177894</v>
       </c>
       <c r="C8">
-        <v>2.155031411593313</v>
+        <v>2.138825242361463</v>
       </c>
       <c r="D8">
-        <v>0.3571099142570375</v>
+        <v>0.3548977695077014</v>
       </c>
       <c r="E8">
-        <v>0.5572711705394298</v>
+        <v>0.5535516312343844</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007722017110536457</v>
       </c>
       <c r="H8">
-        <v>9.228879068878541</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2013045498883415</v>
+        <v>9.233807919483098</v>
       </c>
       <c r="J8">
-        <v>0.9896903986730763</v>
+        <v>0.1999280628121092</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9785026623177231</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.318032274123311</v>
+        <v>3.266923443137102</v>
       </c>
       <c r="C9">
-        <v>3.059428225250088</v>
+        <v>3.030060985324383</v>
       </c>
       <c r="D9">
-        <v>0.5049990243177263</v>
+        <v>0.5014825265380978</v>
       </c>
       <c r="E9">
-        <v>0.7992661108405912</v>
+        <v>0.7933484466185803</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007309282161382685</v>
       </c>
       <c r="H9">
-        <v>12.62911496239172</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2901641021874042</v>
+        <v>12.60798973606984</v>
       </c>
       <c r="J9">
-        <v>1.428201110060471</v>
+        <v>0.287968756650038</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.409533259191846</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.232393170959028</v>
+        <v>4.163958938050371</v>
       </c>
       <c r="C10">
-        <v>3.816839369804939</v>
+        <v>3.775750644263837</v>
       </c>
       <c r="D10">
-        <v>0.6293198187686357</v>
+        <v>0.6245242078581157</v>
       </c>
       <c r="E10">
-        <v>1.004555869422674</v>
+        <v>0.9964309520980805</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006992574661357723</v>
       </c>
       <c r="H10">
-        <v>15.42515095308596</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.365876152062107</v>
+        <v>15.37877004614791</v>
       </c>
       <c r="J10">
-        <v>1.803072087588902</v>
+        <v>0.3628498981665373</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.777771763616443</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.700191594769421</v>
+        <v>4.622507038559661</v>
       </c>
       <c r="C11">
-        <v>4.195370698023339</v>
+        <v>4.148034611195101</v>
       </c>
       <c r="D11">
-        <v>0.6915727969494867</v>
+        <v>0.6860555864489584</v>
       </c>
       <c r="E11">
-        <v>1.108107522715954</v>
+        <v>1.098717417340737</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006841642878037292</v>
       </c>
       <c r="H11">
-        <v>16.80536811890829</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4041985524463669</v>
+        <v>16.74487881690004</v>
       </c>
       <c r="J11">
-        <v>1.992898446092894</v>
+        <v>0.4006927059510588</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.96406639720108</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.887512664749465</v>
+        <v>4.806021330926626</v>
       </c>
       <c r="C12">
-        <v>4.345360683344666</v>
+        <v>4.295457533008403</v>
       </c>
       <c r="D12">
-        <v>0.7162592460487645</v>
+        <v>0.7104381238957274</v>
       </c>
       <c r="E12">
-        <v>1.149323314889074</v>
+        <v>1.139396384549187</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006783004240650318</v>
       </c>
       <c r="H12">
-        <v>17.34908089748251</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4194781692571041</v>
+        <v>17.28267994355201</v>
       </c>
       <c r="J12">
-        <v>2.068564271899916</v>
+        <v>0.4157681739133139</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.038280953374112</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.846660899295841</v>
+        <v>4.766005351771241</v>
       </c>
       <c r="C13">
-        <v>4.312725656702696</v>
+        <v>4.263385890677284</v>
       </c>
       <c r="D13">
-        <v>0.7108870563979508</v>
+        <v>0.7051329899294956</v>
       </c>
       <c r="E13">
-        <v>1.140346447908243</v>
+        <v>1.130538159455853</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006795709328472561</v>
       </c>
       <c r="H13">
-        <v>17.23093412561963</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4161489249001349</v>
+        <v>17.16583599469914</v>
       </c>
       <c r="J13">
-        <v>2.052079224269505</v>
+        <v>0.4124840799766929</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.02211442580851</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.715378877907142</v>
+        <v>4.637388068571568</v>
       </c>
       <c r="C14">
-        <v>4.207564438999157</v>
+        <v>4.160021740434161</v>
       </c>
       <c r="D14">
-        <v>0.6935793423194525</v>
+        <v>0.6880378267748029</v>
       </c>
       <c r="E14">
-        <v>1.11145427833462</v>
+        <v>1.102021325276255</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006836851976754702</v>
       </c>
       <c r="H14">
-        <v>16.84963824774485</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4054386953696465</v>
+        <v>16.78867550880744</v>
       </c>
       <c r="J14">
-        <v>1.999040380108028</v>
+        <v>0.4019165682106234</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.970091530368279</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.636390494959642</v>
+        <v>4.55998809773979</v>
       </c>
       <c r="C15">
-        <v>4.144080850161515</v>
+        <v>4.097609932336979</v>
       </c>
       <c r="D15">
-        <v>0.6831335498509361</v>
+        <v>0.6777178149206691</v>
       </c>
       <c r="E15">
-        <v>1.094037876542515</v>
+        <v>1.084826503046614</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006861841522544141</v>
       </c>
       <c r="H15">
-        <v>16.61902598028973</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3989861324268205</v>
+        <v>16.56051455629557</v>
       </c>
       <c r="J15">
-        <v>1.967082364559815</v>
+        <v>0.3955481715617992</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.938739402534111</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.20307281951483</v>
+        <v>4.135207722401674</v>
       </c>
       <c r="C16">
-        <v>3.792920214918126</v>
+        <v>3.752216232566923</v>
       </c>
       <c r="D16">
-        <v>0.6253885729730371</v>
+        <v>0.6206365358447385</v>
       </c>
       <c r="E16">
-        <v>0.9980344154936347</v>
+        <v>0.9899854551703697</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007002262163232902</v>
       </c>
       <c r="H16">
-        <v>15.33755113989906</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3634657813666919</v>
+        <v>15.29202541640666</v>
       </c>
       <c r="J16">
-        <v>1.791131896397161</v>
+        <v>0.3604682478297718</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.766049097578872</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.952141329000881</v>
+        <v>3.889103601613328</v>
       </c>
       <c r="C17">
-        <v>3.587246758735887</v>
+        <v>3.549807423914558</v>
       </c>
       <c r="D17">
-        <v>0.5915980427976706</v>
+        <v>0.5872115384344454</v>
       </c>
       <c r="E17">
-        <v>0.9420635529545081</v>
+        <v>0.9346497222644814</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007086351384204684</v>
       </c>
       <c r="H17">
-        <v>14.58242684693928</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3427931345734478</v>
+        <v>14.54408962159135</v>
       </c>
       <c r="J17">
-        <v>1.68873298806713</v>
+        <v>0.3400354130416829</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.665496246930388</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.812481950657968</v>
+        <v>3.752100673692212</v>
       </c>
       <c r="C18">
-        <v>3.47201119787394</v>
+        <v>3.436369130524724</v>
       </c>
       <c r="D18">
-        <v>0.5726763891151734</v>
+        <v>0.5684878415188734</v>
       </c>
       <c r="E18">
-        <v>0.91078531022427</v>
+        <v>0.9037138678852443</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000713410989971996</v>
       </c>
       <c r="H18">
-        <v>14.15787074899052</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3312517371616366</v>
+        <v>14.12343727081489</v>
       </c>
       <c r="J18">
-        <v>1.6315740329253</v>
+        <v>0.3286230358996463</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.609353908851674</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.765931585303861</v>
+        <v>3.706431491064166</v>
       </c>
       <c r="C19">
-        <v>3.433477386089351</v>
+        <v>3.398431580862052</v>
       </c>
       <c r="D19">
-        <v>0.5663509262849118</v>
+        <v>0.5622275272489219</v>
       </c>
       <c r="E19">
-        <v>0.9003390023836033</v>
+        <v>0.8933799949597017</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007150187994070387</v>
       </c>
       <c r="H19">
-        <v>14.01566673219901</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3273988779686263</v>
+        <v>13.98251963798452</v>
       </c>
       <c r="J19">
-        <v>1.612494988348288</v>
+        <v>0.3248125042048926</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.590612202856093</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.978353824016949</v>
+        <v>3.914815242066879</v>
       </c>
       <c r="C20">
-        <v>3.608813523793231</v>
+        <v>3.571035378640545</v>
       </c>
       <c r="D20">
-        <v>0.5951401686592419</v>
+        <v>0.5907160829147244</v>
       </c>
       <c r="E20">
-        <v>0.9479238415022166</v>
+        <v>0.9404448835276753</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007077465805472158</v>
       </c>
       <c r="H20">
-        <v>14.66176665920807</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3449564063108923</v>
+        <v>14.62268917276361</v>
       </c>
       <c r="J20">
-        <v>1.699447589007036</v>
+        <v>0.3421741224040815</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.676019230392285</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.753635866816182</v>
+        <v>4.674871779382954</v>
       </c>
       <c r="C21">
-        <v>4.238254610825095</v>
+        <v>4.190190295723482</v>
       </c>
       <c r="D21">
-        <v>0.6986298832601108</v>
+        <v>0.6930268846713545</v>
       </c>
       <c r="E21">
-        <v>1.119880750792248</v>
+        <v>1.110339342468635</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006824812660412768</v>
       </c>
       <c r="H21">
-        <v>16.96100771595053</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4085615783211693</v>
+        <v>16.89884786301178</v>
       </c>
       <c r="J21">
-        <v>2.01450631259361</v>
+        <v>0.4049982309966254</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.985262581381946</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.321903893131889</v>
+        <v>5.231311076240445</v>
       </c>
       <c r="C22">
-        <v>4.689838700819223</v>
+        <v>4.633809201375584</v>
       </c>
       <c r="D22">
-        <v>0.7729934763878816</v>
+        <v>0.7664306583506004</v>
       </c>
       <c r="E22">
-        <v>1.244392665573571</v>
+        <v>1.233146321798728</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006650632236686604</v>
       </c>
       <c r="H22">
-        <v>18.59087238833786</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4547827473037884</v>
+        <v>18.51011844366809</v>
       </c>
       <c r="J22">
-        <v>2.243300791893716</v>
+        <v>0.4505694617041271</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.209552911202877</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.01172958754205</v>
+        <v>4.927676700073334</v>
       </c>
       <c r="C23">
-        <v>4.444337811792138</v>
+        <v>4.392708786095682</v>
       </c>
       <c r="D23">
-        <v>0.7325551969186961</v>
+        <v>0.7265274271010469</v>
       </c>
       <c r="E23">
-        <v>1.17657999633775</v>
+        <v>1.166286758777062</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006744649615978859</v>
       </c>
       <c r="H23">
-        <v>17.70687293330883</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4295913960439037</v>
+        <v>17.63646247251398</v>
       </c>
       <c r="J23">
-        <v>2.118634176298286</v>
+        <v>0.4257418860953806</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.087375030046459</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.966489000493198</v>
+        <v>3.903177218077985</v>
       </c>
       <c r="C24">
-        <v>3.59905393899885</v>
+        <v>3.561429213394945</v>
       </c>
       <c r="D24">
-        <v>0.5935372209114007</v>
+        <v>0.5891301629920918</v>
       </c>
       <c r="E24">
-        <v>0.9452716385370081</v>
+        <v>0.9378221941637293</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.00070814847652656</v>
       </c>
       <c r="H24">
-        <v>14.62586768608389</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3439773353903846</v>
+        <v>14.58712557230626</v>
       </c>
       <c r="J24">
-        <v>1.694598256338082</v>
+        <v>0.3412061831821802</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.671256664601145</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.014064915421272</v>
+        <v>2.968589288884971</v>
       </c>
       <c r="C25">
-        <v>2.802028753472428</v>
+        <v>2.776471907795951</v>
       </c>
       <c r="D25">
-        <v>0.4628372922950632</v>
+        <v>0.4597137188059719</v>
       </c>
       <c r="E25">
-        <v>0.7300540702529759</v>
+        <v>0.7248045278115143</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007422275352550018</v>
       </c>
       <c r="H25">
-        <v>11.66839929997593</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2647100853749507</v>
+        <v>11.65509313033698</v>
       </c>
       <c r="J25">
-        <v>1.302352813522219</v>
+        <v>0.2627646215101151</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.28584541458288</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.366257278728085</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.254863053591691</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.373946447149109</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.584601673626068</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007665538678249724</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.677244343217552</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.211307882348386</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.034025555025295</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.992461108577373</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.92390695191574</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3196521649890514</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4961733457075042</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000782936226713213</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.408943159302822</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1789125719048634</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8761732100583828</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.775405703346536</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.728812634039571</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2877020705856097</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4442322509902752</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000793033402182064</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.655903920048473</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1599022743032208</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.783880137251856</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.68954220927003</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.650986488055139</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2749699543901727</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4235499490719974</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007971686030084943</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.354292637307992</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1523358191549455</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7472301064936175</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.675426829272453</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.638155269657545</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2728715895706841</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.420142102512358</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007978567738858311</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.304496308800907</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1510892451391186</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7411970823553204</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.774237888766123</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.727756692463231</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2875292685829152</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4439514911326086</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007930890745721449</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.651816445806674</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1597995490500672</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7833822185492778</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.234427119177894</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.138825242361463</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3548977695077014</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5535516312343844</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007722017110536457</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.233807919483098</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1999280628121092</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9785026623177231</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.266923443137102</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.030060985324383</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5014825265380978</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7933484466185803</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007309282161382685</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.60798973606984</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.287968756650038</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.409533259191846</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.163958938050371</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.775750644263837</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6245242078581157</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9964309520980805</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006992574661357723</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.37877004614791</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3628498981665373</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.777771763616443</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.622507038559661</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.148034611195101</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6860555864489584</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.098717417340737</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006841642878037292</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.74487881690004</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4006927059510588</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.96406639720108</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.806021330926626</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4.295457533008403</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7104381238957274</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.139396384549187</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006783004240650318</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.28267994355201</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4157681739133139</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2.038280953374112</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.766005351771241</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4.263385890677284</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7051329899294956</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.130538159455853</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006795709328472561</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.16583599469914</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4124840799766929</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>2.02211442580851</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.637388068571568</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>4.160021740434161</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6880378267748029</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.102021325276255</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006836851976754702</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.78867550880744</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4019165682106234</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.970091530368279</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.55998809773979</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>4.097609932336979</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6777178149206691</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1.084826503046614</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006861841522544141</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.56051455629557</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3955481715617992</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.938739402534111</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.135207722401674</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>3.752216232566923</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6206365358447385</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9899854551703697</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007002262163232902</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.29202541640666</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3604682478297718</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.766049097578872</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.889103601613328</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>3.549807423914558</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5872115384344454</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9346497222644814</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007086351384204684</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.54408962159135</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3400354130416829</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.665496246930388</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.752100673692212</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3.436369130524724</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5684878415188734</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9037138678852443</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000713410989971996</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.12343727081489</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3286230358996463</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.609353908851674</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.706431491064166</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>3.398431580862052</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5622275272489219</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8933799949597017</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007150187994070387</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.98251963798452</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3248125042048926</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.590612202856093</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.914815242066879</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>3.571035378640545</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5907160829147244</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9404448835276753</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007077465805472158</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.62268917276361</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3421741224040815</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.676019230392285</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.674871779382954</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>4.190190295723482</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6930268846713545</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1.110339342468635</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006824812660412768</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.89884786301178</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4049982309966254</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.985262581381946</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.231311076240445</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>4.633809201375584</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7664306583506004</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.233146321798728</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006650632236686604</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.51011844366809</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4505694617041271</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>2.209552911202877</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.927676700073334</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>4.392708786095682</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7265274271010469</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1.166286758777062</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006744649615978859</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.63646247251398</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4257418860953806</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>2.087375030046459</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.903177218077985</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>3.561429213394945</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5891301629920918</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9378221941637293</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00070814847652656</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.58712557230626</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3412061831821802</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.671256664601145</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.968589288884971</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>2.776471907795951</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4597137188059719</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7248045278115143</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007422275352550018</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.65509313033698</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2627646215101151</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.28584541458288</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.659085879785323</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.176585419953312</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2077305475511793</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.447094805913906</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007663224823334331</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1494623895594671</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.748205388480017</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.179735215878054</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.024614038721978</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1795648016397138</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.238987519476126</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007723543640149044</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1502821897698041</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.57661431990951</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.886593024832678</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.9317593443198007</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1625143394497144</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.114131189284976</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007761510162629171</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1520967703772591</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.478956544329179</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.767355323683205</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.8940062045859918</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1556191219592336</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.063870528463099</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007777227329331569</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1531407177120414</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.440916551697086</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.74756716771742</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.8877417179373879</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1544771476163334</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.055559025300482</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007779852299909603</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1533317538418686</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.434701129458773</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.88498414902341</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.9312498807333611</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1624211440298353</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.113450993339754</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007761721121312681</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1521096484748767</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.478436639656422</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.493512121230253</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.124072740167037</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1979633209777347</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.374659555464234</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000768383685198188</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1494571056526972</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.687329799967472</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.700100385988151</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.507283917211282</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2700014839147968</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.915990121116394</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007537914463233202</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1559078706641159</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.167011219892743</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5.600815320623383</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.794252024729303</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3249875634725328</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.340969501436433</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007433957716438822</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1696848865121758</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.576069302995109</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6.015247932544412</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.926582900169024</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3506100303522004</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.542788368563109</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007387139962695133</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1784109804334051</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.778050301629179</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6.173008160351401</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.977008386573289</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3604153763356521</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.620690591267248</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007369457014106802</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1821167962596135</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.857168709640035</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6.138992462965405</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.966133357113449</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3582987927837706</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.603842676285751</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007373263695087163</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.18129999833128</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.84000603590701</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6.028209533305642</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.93072477033104</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3514145712260301</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.549166190229499</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007385684392806574</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1787075180769762</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.784504507314097</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5.960463794450163</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.909078812752853</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3472116375321264</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.515876063485976</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007393297701667595</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1771733554354711</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.750862140083541</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5.573837889653987</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.785644607312577</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3233265795044957</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.327972043016374</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007437025060364196</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1691680447364803</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.563217858566077</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5.337957316290669</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.710418129281663</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3088400376432219</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.215043970446345</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007463956669614117</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1649189636121875</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.452408488437953</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5.202716799979896</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.667314229318833</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.30056408200943</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.150872573596004</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007479492992151369</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1627032406978124</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.390147054367304</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5.156996612697583</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.652746593294864</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2977712277404123</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.129272382195197</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007484761845326223</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.161990875660468</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.369309602880975</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5.363021504624953</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.718408711353788</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3103762222387587</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.226982714813957</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007461085145895757</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1653473369619824</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.464049502349923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>6.060725529900537</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.941116091634626</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3534337178724627</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.565183632774094</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007382035077275195</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1794576846539044</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.80073220871509</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6.521599781279974</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.088535138978898</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3821811464837737</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.794983397891286</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007330626388954404</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1910464758252601</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.036314963863106</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>6.275121161082609</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.00966278099753</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3667770857681205</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.67143631334983</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007358048945088361</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1846272269458318</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.909030801084384</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.351688842452177</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.714795722410031</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3096815506175545</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.221582883522842</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007462383194568986</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.165152965445575</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.458782126707064</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.371673058815588</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.402847504792817</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2502013061279769</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.765527882225612</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007576748118399584</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.152728499940352</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.028402375881797</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.659085879785323</v>
+        <v>1.214278702769434</v>
       </c>
       <c r="C2">
-        <v>1.176585419953312</v>
+        <v>0.365622547721614</v>
       </c>
       <c r="D2">
-        <v>0.2077305475511793</v>
+        <v>0.07941296282635335</v>
       </c>
       <c r="E2">
-        <v>1.447094805913906</v>
+        <v>0.4223042686625433</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007663224823334331</v>
+        <v>0.002386932758169901</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1494623895594671</v>
+        <v>0.3355830042883845</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.748205388480017</v>
+        <v>1.839492726063412</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.179735215878054</v>
+        <v>1.066785532073254</v>
       </c>
       <c r="C3">
-        <v>1.024614038721978</v>
+        <v>0.3189329536006085</v>
       </c>
       <c r="D3">
-        <v>0.1795648016397138</v>
+        <v>0.07190151070420825</v>
       </c>
       <c r="E3">
-        <v>1.238987519476126</v>
+        <v>0.3682411441012619</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007723543640149044</v>
+        <v>0.0023906544224222</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1502821897698041</v>
+        <v>0.342846019663682</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.57661431990951</v>
+        <v>1.829181641849857</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.886593024832678</v>
+        <v>0.9760460895228107</v>
       </c>
       <c r="C4">
-        <v>0.9317593443198007</v>
+        <v>0.2901710387618266</v>
       </c>
       <c r="D4">
-        <v>0.1625143394497144</v>
+        <v>0.06732703250825978</v>
       </c>
       <c r="E4">
-        <v>1.114131189284976</v>
+        <v>0.3351553121666768</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007761510162629171</v>
+        <v>0.0023930571205127</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1520967703772591</v>
+        <v>0.3477362606604721</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.478956544329179</v>
+        <v>1.825035712061833</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.767355323683205</v>
+        <v>0.939025595801354</v>
       </c>
       <c r="C5">
-        <v>0.8940062045859918</v>
+        <v>0.2784268330206032</v>
       </c>
       <c r="D5">
-        <v>0.1556191219592336</v>
+        <v>0.06547225941756096</v>
       </c>
       <c r="E5">
-        <v>1.063870528463099</v>
+        <v>0.3216977307559574</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007777227329331569</v>
+        <v>0.002394065907033896</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1531407177120414</v>
+        <v>0.3498367422637827</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.440916551697086</v>
+        <v>1.823891709837852</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.74756716771742</v>
+        <v>0.932875787872149</v>
       </c>
       <c r="C6">
-        <v>0.8877417179373879</v>
+        <v>0.2764753046428723</v>
       </c>
       <c r="D6">
-        <v>0.1544771476163334</v>
+        <v>0.06516483880686508</v>
       </c>
       <c r="E6">
-        <v>1.055559025300482</v>
+        <v>0.3194645631544688</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007779852299909603</v>
+        <v>0.002394235210051644</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1533317538418686</v>
+        <v>0.3501920098564959</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.434701129458773</v>
+        <v>1.823734579946034</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.88498414902341</v>
+        <v>0.9755469922606608</v>
       </c>
       <c r="C7">
-        <v>0.9312498807333611</v>
+        <v>0.2900127471027929</v>
       </c>
       <c r="D7">
-        <v>0.1624211440298353</v>
+        <v>0.0673019805883257</v>
       </c>
       <c r="E7">
-        <v>1.113450993339754</v>
+        <v>0.3349737196120941</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007761721121312681</v>
+        <v>0.002393070605070315</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1521096484748767</v>
+        <v>0.3477641533952962</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.478436639656422</v>
+        <v>1.825018080220559</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.493512121230253</v>
+        <v>1.163460754320909</v>
       </c>
       <c r="C8">
-        <v>1.124072740167037</v>
+        <v>0.3495436679585282</v>
       </c>
       <c r="D8">
-        <v>0.1979633209777347</v>
+        <v>0.07681515872241107</v>
       </c>
       <c r="E8">
-        <v>1.374659555464234</v>
+        <v>0.4036392564278231</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000768383685198188</v>
+        <v>0.002388191644845439</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1494571056526972</v>
+        <v>0.3379975116692222</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.687329799967472</v>
+        <v>1.835481543054357</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.700100385988151</v>
+        <v>1.530507497587621</v>
       </c>
       <c r="C9">
-        <v>1.507283917211282</v>
+        <v>0.4655316202233735</v>
       </c>
       <c r="D9">
-        <v>0.2700014839147968</v>
+        <v>0.09577362304975168</v>
       </c>
       <c r="E9">
-        <v>1.915990121116394</v>
+        <v>0.5392677428273771</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007537914463233202</v>
+        <v>0.002379552355474105</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1559078706641159</v>
+        <v>0.3222913369731444</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.167011219892743</v>
+        <v>1.873521689936382</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.600815320623383</v>
+        <v>1.799268722748423</v>
       </c>
       <c r="C10">
-        <v>1.794252024729303</v>
+        <v>0.5502938090637599</v>
       </c>
       <c r="D10">
-        <v>0.3249875634725328</v>
+        <v>0.1098955321608202</v>
       </c>
       <c r="E10">
-        <v>2.340969501436433</v>
+        <v>0.6396700428514492</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007433957716438822</v>
+        <v>0.002373764517215854</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1696848865121758</v>
+        <v>0.3128921671343576</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.576069302995109</v>
+        <v>1.912411571984819</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.015247932544412</v>
+        <v>1.921335567927997</v>
       </c>
       <c r="C11">
-        <v>1.926582900169024</v>
+        <v>0.5887573983310972</v>
       </c>
       <c r="D11">
-        <v>0.3506100303522004</v>
+        <v>0.1163637848113126</v>
       </c>
       <c r="E11">
-        <v>2.542788368563109</v>
+        <v>0.6855455647639701</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007387139962695133</v>
+        <v>0.002371251569842677</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1784109804334051</v>
+        <v>0.3090894342826473</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.778050301629179</v>
+        <v>1.932536207612713</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.173008160351401</v>
+        <v>1.967530449814149</v>
       </c>
       <c r="C12">
-        <v>1.977008386573289</v>
+        <v>0.6033088396283119</v>
       </c>
       <c r="D12">
-        <v>0.3604153763356521</v>
+        <v>0.1188196122638772</v>
       </c>
       <c r="E12">
-        <v>2.620690591267248</v>
+        <v>0.7029492356389682</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007369457014106802</v>
+        <v>0.002370317127808108</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1821167962596135</v>
+        <v>0.3077181603744634</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.857168709640035</v>
+        <v>1.9405113263484</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.138992462965405</v>
+        <v>1.957582873452964</v>
       </c>
       <c r="C13">
-        <v>1.966133357113449</v>
+        <v>0.6001755470046533</v>
       </c>
       <c r="D13">
-        <v>0.3582987927837706</v>
+        <v>0.1182904179037649</v>
       </c>
       <c r="E13">
-        <v>2.603842676285751</v>
+        <v>0.6991995969189873</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007373263695087163</v>
+        <v>0.002370517614953276</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.18129999833128</v>
+        <v>0.3080104200446456</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.84000603590701</v>
+        <v>1.93877791091316</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.028209533305642</v>
+        <v>1.925136640763355</v>
       </c>
       <c r="C14">
-        <v>1.93072477033104</v>
+        <v>0.589954833552099</v>
       </c>
       <c r="D14">
-        <v>0.3514145712260301</v>
+        <v>0.1165656975841785</v>
       </c>
       <c r="E14">
-        <v>2.549166190229499</v>
+        <v>0.6869767270220137</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007385684392806574</v>
+        <v>0.002371174349446189</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1787075180769762</v>
+        <v>0.3089752369824446</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.784504507314097</v>
+        <v>1.933185198136187</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.960463794450163</v>
+        <v>1.905258548358972</v>
       </c>
       <c r="C15">
-        <v>1.909078812752853</v>
+        <v>0.5836925374246675</v>
       </c>
       <c r="D15">
-        <v>0.3472116375321264</v>
+        <v>0.1155100981930417</v>
       </c>
       <c r="E15">
-        <v>2.515876063485976</v>
+        <v>0.6794940588900573</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007393297701667595</v>
+        <v>0.00237157884972322</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1771733554354711</v>
+        <v>0.309575188487976</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.750862140083541</v>
+        <v>1.929805779635217</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.573837889653987</v>
+        <v>1.791287352754466</v>
       </c>
       <c r="C16">
-        <v>1.785644607312577</v>
+        <v>0.5477781907008534</v>
       </c>
       <c r="D16">
-        <v>0.3233265795044957</v>
+        <v>0.1094737126759497</v>
       </c>
       <c r="E16">
-        <v>2.327972043016374</v>
+        <v>0.6366762523799139</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007437025060364196</v>
+        <v>0.002373931150105051</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1691680447364803</v>
+        <v>0.3131502642231609</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.563217858566077</v>
+        <v>1.911145724827605</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.337957316290669</v>
+        <v>1.721319101335837</v>
       </c>
       <c r="C17">
-        <v>1.710418129281663</v>
+        <v>0.5257213826342877</v>
       </c>
       <c r="D17">
-        <v>0.3088400376432219</v>
+        <v>0.1057819546881404</v>
       </c>
       <c r="E17">
-        <v>2.215043970446345</v>
+        <v>0.6104624632130822</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007463956669614117</v>
+        <v>0.002375404869659113</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1649189636121875</v>
+        <v>0.3154651158991157</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.452408488437953</v>
+        <v>1.900324791078134</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.202716799979896</v>
+        <v>1.681057029281135</v>
       </c>
       <c r="C18">
-        <v>1.667314229318833</v>
+        <v>0.5130259447262233</v>
       </c>
       <c r="D18">
-        <v>0.30056408200943</v>
+        <v>0.1036627006402142</v>
       </c>
       <c r="E18">
-        <v>2.150872573596004</v>
+        <v>0.5954038442336156</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007479492992151369</v>
+        <v>0.002376263811799212</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1627032406978124</v>
+        <v>0.3168410346739954</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.390147054367304</v>
+        <v>1.894329656059483</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.156996612697583</v>
+        <v>1.667421900263832</v>
       </c>
       <c r="C19">
-        <v>1.652746593294864</v>
+        <v>0.5087259576068845</v>
       </c>
       <c r="D19">
-        <v>0.2977712277404123</v>
+        <v>0.102945867087314</v>
       </c>
       <c r="E19">
-        <v>2.129272382195197</v>
+        <v>0.5903084163634844</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007484761845326223</v>
+        <v>0.002376556578046494</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.161990875660468</v>
+        <v>0.3173145141980172</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.369309602880975</v>
+        <v>1.892338964883692</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.363021504624953</v>
+        <v>1.72876923261822</v>
       </c>
       <c r="C20">
-        <v>1.718408711353788</v>
+        <v>0.5280702948022622</v>
       </c>
       <c r="D20">
-        <v>0.3103762222387587</v>
+        <v>0.1061745186881922</v>
       </c>
       <c r="E20">
-        <v>2.226982714813957</v>
+        <v>0.6132509955064762</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007461085145895757</v>
+        <v>0.002375246821049981</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1653473369619824</v>
+        <v>0.3152140875479219</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.464049502349923</v>
+        <v>1.901452988148264</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.060725529900537</v>
+        <v>1.934667687890965</v>
       </c>
       <c r="C21">
-        <v>1.941116091634626</v>
+        <v>0.5929572832286567</v>
       </c>
       <c r="D21">
-        <v>0.3534337178724627</v>
+        <v>0.1170721141883462</v>
       </c>
       <c r="E21">
-        <v>2.565183632774094</v>
+        <v>0.6905660018494189</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007382035077275195</v>
+        <v>0.002370980985845588</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1794576846539044</v>
+        <v>0.3086899755443433</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.80073220871509</v>
+        <v>1.934818260883503</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.521599781279974</v>
+        <v>2.069063561715268</v>
       </c>
       <c r="C22">
-        <v>2.088535138978898</v>
+        <v>0.6352836636619372</v>
       </c>
       <c r="D22">
-        <v>0.3821811464837737</v>
+        <v>0.124231908524834</v>
       </c>
       <c r="E22">
-        <v>2.794983397891286</v>
+        <v>0.7412812670968663</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007330626388954404</v>
+        <v>0.002368292972933228</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1910464758252601</v>
+        <v>0.3048270894215861</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.036314963863106</v>
+        <v>1.958691928414339</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.275121161082609</v>
+        <v>1.997349985332391</v>
       </c>
       <c r="C23">
-        <v>2.00966278099753</v>
+        <v>0.6127007541232956</v>
       </c>
       <c r="D23">
-        <v>0.3667770857681205</v>
+        <v>0.1204071205783634</v>
       </c>
       <c r="E23">
-        <v>2.67143631334983</v>
+        <v>0.7141957533454217</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007358048945088361</v>
+        <v>0.002369718501079297</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1846272269458318</v>
+        <v>0.3068518535424296</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.909030801084384</v>
+        <v>1.945759452377757</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.351688842452177</v>
+        <v>1.725401141527641</v>
       </c>
       <c r="C24">
-        <v>1.714795722410031</v>
+        <v>0.5270083973428541</v>
       </c>
       <c r="D24">
-        <v>0.3096815506175545</v>
+        <v>0.1059970305859821</v>
       </c>
       <c r="E24">
-        <v>2.221582883522842</v>
+        <v>0.6119902627804805</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007462383194568986</v>
+        <v>0.002375318238429122</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.165152965445575</v>
+        <v>0.3153274370996826</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.458782126707064</v>
+        <v>1.900942226728915</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.371673058815588</v>
+        <v>1.431369578700071</v>
       </c>
       <c r="C25">
-        <v>1.402847504792817</v>
+        <v>0.4342339205458075</v>
       </c>
       <c r="D25">
-        <v>0.2502013061279769</v>
+        <v>0.09061154676106753</v>
       </c>
       <c r="E25">
-        <v>1.765527882225612</v>
+        <v>0.5024556456920095</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007576748118399584</v>
+        <v>0.002381790799879229</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.152728499940352</v>
+        <v>0.326167287838647</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.028402375881797</v>
+        <v>1.861328217133774</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.214278702769434</v>
+        <v>3.659085879785209</v>
       </c>
       <c r="C2">
-        <v>0.365622547721614</v>
+        <v>1.176585419952858</v>
       </c>
       <c r="D2">
-        <v>0.07941296282635335</v>
+        <v>0.2077305475513072</v>
       </c>
       <c r="E2">
-        <v>0.4223042686625433</v>
+        <v>1.447094805913864</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002386932758169901</v>
+        <v>0.0007663224823059295</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3355830042883845</v>
+        <v>0.1494623895594671</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.839492726063412</v>
+        <v>1.748205388480187</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.066785532073254</v>
+        <v>3.179735215877997</v>
       </c>
       <c r="C3">
-        <v>0.3189329536006085</v>
+        <v>1.024614038721978</v>
       </c>
       <c r="D3">
-        <v>0.07190151070420825</v>
+        <v>0.1795648016398275</v>
       </c>
       <c r="E3">
-        <v>0.3682411441012619</v>
+        <v>1.238987519476169</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0023906544224222</v>
+        <v>0.0007723543640433883</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.342846019663682</v>
+        <v>0.1502821897698077</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.829181641849857</v>
+        <v>1.576614319909481</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9760460895228107</v>
+        <v>2.886593024832905</v>
       </c>
       <c r="C4">
-        <v>0.2901710387618266</v>
+        <v>0.9317593443200565</v>
       </c>
       <c r="D4">
-        <v>0.06732703250825978</v>
+        <v>0.1625143394498707</v>
       </c>
       <c r="E4">
-        <v>0.3351553121666768</v>
+        <v>1.114131189284976</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0023930571205127</v>
+        <v>0.0007761510162335172</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3477362606604721</v>
+        <v>0.1520967703772556</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.825035712061833</v>
+        <v>1.478956544329094</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.939025595801354</v>
+        <v>2.767355323683262</v>
       </c>
       <c r="C5">
-        <v>0.2784268330206032</v>
+        <v>0.8940062045862476</v>
       </c>
       <c r="D5">
-        <v>0.06547225941756096</v>
+        <v>0.155619121959262</v>
       </c>
       <c r="E5">
-        <v>0.3216977307559574</v>
+        <v>1.063870528463056</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002394065907033896</v>
+        <v>0.000777722732959954</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3498367422637827</v>
+        <v>0.1531407177120414</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.823891709837852</v>
+        <v>1.440916551697057</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.932875787872149</v>
+        <v>2.747567167717705</v>
       </c>
       <c r="C6">
-        <v>0.2764753046428723</v>
+        <v>0.8877417179377574</v>
       </c>
       <c r="D6">
-        <v>0.06516483880686508</v>
+        <v>0.1544771476162907</v>
       </c>
       <c r="E6">
-        <v>0.3194645631544688</v>
+        <v>1.055559025300482</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002394235210051644</v>
+        <v>0.0007779852300202147</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3501920098564959</v>
+        <v>0.1533317538418686</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.823734579946034</v>
+        <v>1.434701129458745</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9755469922606608</v>
+        <v>2.884984149023524</v>
       </c>
       <c r="C7">
-        <v>0.2900127471027929</v>
+        <v>0.9312498807334748</v>
       </c>
       <c r="D7">
-        <v>0.0673019805883257</v>
+        <v>0.1624211440298637</v>
       </c>
       <c r="E7">
-        <v>0.3349737196120941</v>
+        <v>1.11345099333974</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002393070605070315</v>
+        <v>0.000776172112125039</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3477641533952962</v>
+        <v>0.1521096484748803</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.825018080220559</v>
+        <v>1.478436639656451</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.163460754320909</v>
+        <v>3.493512121230481</v>
       </c>
       <c r="C8">
-        <v>0.3495436679585282</v>
+        <v>1.124072740167264</v>
       </c>
       <c r="D8">
-        <v>0.07681515872241107</v>
+        <v>0.1979633209776921</v>
       </c>
       <c r="E8">
-        <v>0.4036392564278231</v>
+        <v>1.374659555464234</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002388191644845439</v>
+        <v>0.0007683836851979659</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3379975116692222</v>
+        <v>0.149457105652683</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.835481543054357</v>
+        <v>1.6873297999675</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.530507497587621</v>
+        <v>4.700100385988094</v>
       </c>
       <c r="C9">
-        <v>0.4655316202233735</v>
+        <v>1.507283917211339</v>
       </c>
       <c r="D9">
-        <v>0.09577362304975168</v>
+        <v>0.2700014839148395</v>
       </c>
       <c r="E9">
-        <v>0.5392677428273771</v>
+        <v>1.915990121116408</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002379552355474105</v>
+        <v>0.000753791446323132</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3222913369731444</v>
+        <v>0.1559078706641053</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.873521689936382</v>
+        <v>2.1670112198928</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.799268722748423</v>
+        <v>5.600815320623155</v>
       </c>
       <c r="C10">
-        <v>0.5502938090637599</v>
+        <v>1.794252024729474</v>
       </c>
       <c r="D10">
-        <v>0.1098955321608202</v>
+        <v>0.3249875634724049</v>
       </c>
       <c r="E10">
-        <v>0.6396700428514492</v>
+        <v>2.340969501436433</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002373764517215854</v>
+        <v>0.0007433957716444315</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3128921671343576</v>
+        <v>0.1696848865121723</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.912411571984819</v>
+        <v>2.576069302995023</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.921335567927997</v>
+        <v>6.015247932544298</v>
       </c>
       <c r="C11">
-        <v>0.5887573983310972</v>
+        <v>1.926582900168853</v>
       </c>
       <c r="D11">
-        <v>0.1163637848113126</v>
+        <v>0.3506100303522004</v>
       </c>
       <c r="E11">
-        <v>0.6855455647639701</v>
+        <v>2.542788368563095</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002371251569842677</v>
+        <v>0.0007387139962687264</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3090894342826473</v>
+        <v>0.1784109804333909</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.932536207612713</v>
+        <v>2.778050301629207</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.967530449814149</v>
+        <v>6.173008160351287</v>
       </c>
       <c r="C12">
-        <v>0.6033088396283119</v>
+        <v>1.977008386573345</v>
       </c>
       <c r="D12">
-        <v>0.1188196122638772</v>
+        <v>0.3604153763353963</v>
       </c>
       <c r="E12">
-        <v>0.7029492356389682</v>
+        <v>2.620690591267334</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002370317127808108</v>
+        <v>0.0007369457014418523</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3077181603744634</v>
+        <v>0.1821167962596171</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.9405113263484</v>
+        <v>2.857168709640007</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.957582873452964</v>
+        <v>6.138992462965348</v>
       </c>
       <c r="C13">
-        <v>0.6001755470046533</v>
+        <v>1.966133357113222</v>
       </c>
       <c r="D13">
-        <v>0.1182904179037649</v>
+        <v>0.3582987927837564</v>
       </c>
       <c r="E13">
-        <v>0.6991995969189873</v>
+        <v>2.603842676285737</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002370517614953276</v>
+        <v>0.0007373263695080398</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3080104200446456</v>
+        <v>0.1812999983312942</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.93877791091316</v>
+        <v>2.840006035907038</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.925136640763355</v>
+        <v>6.028209533305414</v>
       </c>
       <c r="C14">
-        <v>0.589954833552099</v>
+        <v>1.93072477033121</v>
       </c>
       <c r="D14">
-        <v>0.1165656975841785</v>
+        <v>0.3514145712259023</v>
       </c>
       <c r="E14">
-        <v>0.6869767270220137</v>
+        <v>2.549166190229542</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002371174349446189</v>
+        <v>0.0007385684392474717</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3089752369824446</v>
+        <v>0.1787075180769797</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.933185198136187</v>
+        <v>2.784504507314097</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.905258548358972</v>
+        <v>5.960463794450163</v>
       </c>
       <c r="C15">
-        <v>0.5836925374246675</v>
+        <v>1.909078812752909</v>
       </c>
       <c r="D15">
-        <v>0.1155100981930417</v>
+        <v>0.3472116375320979</v>
       </c>
       <c r="E15">
-        <v>0.6794940588900573</v>
+        <v>2.515876063485948</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.00237157884972322</v>
+        <v>0.0007393297701940914</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.309575188487976</v>
+        <v>0.1771733554354675</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.929805779635217</v>
+        <v>2.750862140083512</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.791287352754466</v>
+        <v>5.57383788965393</v>
       </c>
       <c r="C16">
-        <v>0.5477781907008534</v>
+        <v>1.785644607312292</v>
       </c>
       <c r="D16">
-        <v>0.1094737126759497</v>
+        <v>0.3233265795045952</v>
       </c>
       <c r="E16">
-        <v>0.6366762523799139</v>
+        <v>2.327972043016345</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002373931150105051</v>
+        <v>0.0007437025060346433</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3131502642231609</v>
+        <v>0.1691680447364803</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.911145724827605</v>
+        <v>2.563217858566077</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.721319101335837</v>
+        <v>5.337957316290726</v>
       </c>
       <c r="C17">
-        <v>0.5257213826342877</v>
+        <v>1.710418129281834</v>
       </c>
       <c r="D17">
-        <v>0.1057819546881404</v>
+        <v>0.3088400376432929</v>
       </c>
       <c r="E17">
-        <v>0.6104624632130822</v>
+        <v>2.215043970446303</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002375404869659113</v>
+        <v>0.0007463956669599749</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3154651158991157</v>
+        <v>0.1649189636121733</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.900324791078134</v>
+        <v>2.452408488438039</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.681057029281135</v>
+        <v>5.202716799979783</v>
       </c>
       <c r="C18">
-        <v>0.5130259447262233</v>
+        <v>1.667314229318492</v>
       </c>
       <c r="D18">
-        <v>0.1036627006402142</v>
+        <v>0.3005640820093589</v>
       </c>
       <c r="E18">
-        <v>0.5954038442336156</v>
+        <v>2.150872573595947</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002376263811799212</v>
+        <v>0.0007479492992429047</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3168410346739954</v>
+        <v>0.1627032406978088</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.894329656059483</v>
+        <v>2.390147054367361</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.667421900263832</v>
+        <v>5.15699661269764</v>
       </c>
       <c r="C19">
-        <v>0.5087259576068845</v>
+        <v>1.652746593294921</v>
       </c>
       <c r="D19">
-        <v>0.102945867087314</v>
+        <v>0.2977712277402844</v>
       </c>
       <c r="E19">
-        <v>0.5903084163634844</v>
+        <v>2.129272382195211</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002376556578046494</v>
+        <v>0.0007484761845338317</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3173145141980172</v>
+        <v>0.1619908756604715</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.892338964883692</v>
+        <v>2.369309602880946</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.72876923261822</v>
+        <v>5.36302150462501</v>
       </c>
       <c r="C20">
-        <v>0.5280702948022622</v>
+        <v>1.718408711353788</v>
       </c>
       <c r="D20">
-        <v>0.1061745186881922</v>
+        <v>0.3103762222387445</v>
       </c>
       <c r="E20">
-        <v>0.6132509955064762</v>
+        <v>2.226982714813957</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002375246821049981</v>
+        <v>0.000746108514558079</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3152140875479219</v>
+        <v>0.1653473369619753</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.901452988148264</v>
+        <v>2.46404950234998</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.934667687890965</v>
+        <v>6.060725529900537</v>
       </c>
       <c r="C21">
-        <v>0.5929572832286567</v>
+        <v>1.941116091634626</v>
       </c>
       <c r="D21">
-        <v>0.1170721141883462</v>
+        <v>0.3534337178724769</v>
       </c>
       <c r="E21">
-        <v>0.6905660018494189</v>
+        <v>2.565183632774094</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002370980985845588</v>
+        <v>0.0007382035077225874</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3086899755443433</v>
+        <v>0.1794576846539151</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.934818260883503</v>
+        <v>2.800732208715118</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.069063561715268</v>
+        <v>6.521599781279917</v>
       </c>
       <c r="C22">
-        <v>0.6352836636619372</v>
+        <v>2.088535138979012</v>
       </c>
       <c r="D22">
-        <v>0.124231908524834</v>
+        <v>0.3821811464837737</v>
       </c>
       <c r="E22">
-        <v>0.7412812670968663</v>
+        <v>2.794983397891272</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002368292972933228</v>
+        <v>0.0007330626389225881</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3048270894215861</v>
+        <v>0.1910464758252566</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.958691928414339</v>
+        <v>3.036314963863163</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.997349985332391</v>
+        <v>6.275121161082211</v>
       </c>
       <c r="C23">
-        <v>0.6127007541232956</v>
+        <v>2.009662780997417</v>
       </c>
       <c r="D23">
-        <v>0.1204071205783634</v>
+        <v>0.3667770857681489</v>
       </c>
       <c r="E23">
-        <v>0.7141957533454217</v>
+        <v>2.671436313349844</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002369718501079297</v>
+        <v>0.0007358048945364005</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3068518535424296</v>
+        <v>0.1846272269458353</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.945759452377757</v>
+        <v>2.909030801084441</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.725401141527641</v>
+        <v>5.351688842452177</v>
       </c>
       <c r="C24">
-        <v>0.5270083973428541</v>
+        <v>1.714795722410088</v>
       </c>
       <c r="D24">
-        <v>0.1059970305859821</v>
+        <v>0.3096815506175545</v>
       </c>
       <c r="E24">
-        <v>0.6119902627804805</v>
+        <v>2.221582883522828</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002375318238429122</v>
+        <v>0.0007462383194860227</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3153274370996826</v>
+        <v>0.1651529654455786</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.900942226728915</v>
+        <v>2.458782126707064</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.431369578700071</v>
+        <v>4.371673058815418</v>
       </c>
       <c r="C25">
-        <v>0.4342339205458075</v>
+        <v>1.402847504792476</v>
       </c>
       <c r="D25">
-        <v>0.09061154676106753</v>
+        <v>0.2502013061279769</v>
       </c>
       <c r="E25">
-        <v>0.5024556456920095</v>
+        <v>1.765527882225612</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002381790799879229</v>
+        <v>0.000757674811840208</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.326167287838647</v>
+        <v>0.1527284999403591</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.861328217133774</v>
+        <v>2.028402375881768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.659085879785209</v>
+        <v>0.846995170271498</v>
       </c>
       <c r="C2">
-        <v>1.176585419952858</v>
+        <v>0.1369316498441577</v>
       </c>
       <c r="D2">
-        <v>0.2077305475513072</v>
+        <v>0.1892203232587661</v>
       </c>
       <c r="E2">
-        <v>1.447094805913864</v>
+        <v>0.03221004790099613</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007663224823059295</v>
+        <v>1.779376987347717</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01826113084276948</v>
       </c>
       <c r="I2">
-        <v>0.1494623895594671</v>
+        <v>0.02352637557374671</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.115953505136332</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.273779456077911</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8756502094501002</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1629474578575625</v>
       </c>
       <c r="O2">
-        <v>1.748205388480187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1968498609230345</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.179735215877997</v>
+        <v>0.7370151146683384</v>
       </c>
       <c r="C3">
-        <v>1.024614038721978</v>
+        <v>0.1188130681036625</v>
       </c>
       <c r="D3">
-        <v>0.1795648016398275</v>
+        <v>0.1642232873906551</v>
       </c>
       <c r="E3">
-        <v>1.238987519476169</v>
+        <v>0.02875944081208814</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007723543640433883</v>
+        <v>1.65332611764552</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02266577379791068</v>
       </c>
       <c r="I3">
-        <v>0.1502821897698077</v>
+        <v>0.02903927809055551</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.05968137171601</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.2027029149748</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7602394459971151</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1432771238281418</v>
       </c>
       <c r="O3">
-        <v>1.576614319909481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1717971211127818</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.886593024832905</v>
+        <v>0.6695181204772496</v>
       </c>
       <c r="C4">
-        <v>0.9317593443200565</v>
+        <v>0.1079302743209354</v>
       </c>
       <c r="D4">
-        <v>0.1625143394498707</v>
+        <v>0.1490152458144678</v>
       </c>
       <c r="E4">
-        <v>1.114131189284976</v>
+        <v>0.02664555223978304</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007761510162335172</v>
+        <v>1.575800256531608</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02570901090650168</v>
       </c>
       <c r="I4">
-        <v>0.1520967703772556</v>
+        <v>0.03287621813051711</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.025121744130672</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.158734016856478</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6897318583012009</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1312326389852103</v>
       </c>
       <c r="O4">
-        <v>1.478956544329094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1564309419376642</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.767355323683262</v>
+        <v>0.6417900295292611</v>
       </c>
       <c r="C5">
-        <v>0.8940062045862476</v>
+        <v>0.1037894628268674</v>
       </c>
       <c r="D5">
-        <v>0.155619121959262</v>
+        <v>0.1428474417044043</v>
       </c>
       <c r="E5">
-        <v>1.063870528463056</v>
+        <v>0.02575364489678655</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000777722732959954</v>
+        <v>1.541421938158237</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02704181948945128</v>
       </c>
       <c r="I5">
-        <v>0.1531407177120414</v>
+        <v>0.03465585379005631</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.00963467588366</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.138733285568463</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6613360085070212</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1263704884593082</v>
       </c>
       <c r="O5">
-        <v>1.440916551697057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1501581528359743</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.747567167717705</v>
+        <v>0.6369128767953782</v>
       </c>
       <c r="C6">
-        <v>0.8877417179377574</v>
+        <v>0.103399690663565</v>
       </c>
       <c r="D6">
-        <v>0.1544771476162907</v>
+        <v>0.1418232163796063</v>
       </c>
       <c r="E6">
-        <v>1.055559025300482</v>
+        <v>0.02556818464469046</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007779852300202147</v>
+        <v>1.53236087025445</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02728100743383033</v>
       </c>
       <c r="I6">
-        <v>0.1533317538418686</v>
+        <v>0.03509529722571614</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.00535621208725</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.132968379512718</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6569444773665793</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1256124385780595</v>
       </c>
       <c r="O6">
-        <v>1.434701129458745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1491004807759602</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.884984149023524</v>
+        <v>0.668394799172205</v>
       </c>
       <c r="C7">
-        <v>0.9312498807334748</v>
+        <v>0.1086799332351092</v>
       </c>
       <c r="D7">
-        <v>0.1624211440298637</v>
+        <v>0.1489266830926255</v>
       </c>
       <c r="E7">
-        <v>1.11345099333974</v>
+        <v>0.02653114095846298</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000776172112125039</v>
+        <v>1.566178012751152</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.02576059459474789</v>
       </c>
       <c r="I7">
-        <v>0.1521096484748803</v>
+        <v>0.03325545155504805</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.020251465650801</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.151798409657587</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6902207308061463</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1313012563197944</v>
       </c>
       <c r="O7">
-        <v>1.478436639656451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1563017900259958</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.493512121230481</v>
+        <v>0.8080514181893932</v>
       </c>
       <c r="C8">
-        <v>1.124072740167264</v>
+        <v>0.1317026604870364</v>
       </c>
       <c r="D8">
-        <v>0.1979633209776921</v>
+        <v>0.180561357901567</v>
       </c>
       <c r="E8">
-        <v>1.374659555464234</v>
+        <v>0.03088135705061212</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007683836851979659</v>
+        <v>1.723790109402103</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01974530927590867</v>
       </c>
       <c r="I8">
-        <v>0.149457105652683</v>
+        <v>0.02575258638975786</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.090384643077329</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.240507152002245</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8369275444891571</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1563361297381931</v>
       </c>
       <c r="O8">
-        <v>1.6873297999675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1881463516706994</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.700100385988094</v>
+        <v>1.083920728131318</v>
       </c>
       <c r="C9">
-        <v>1.507283917211339</v>
+        <v>0.1776493767113436</v>
       </c>
       <c r="D9">
-        <v>0.2700014839148395</v>
+        <v>0.2439226883397509</v>
       </c>
       <c r="E9">
-        <v>1.915990121116408</v>
+        <v>0.03969117999350225</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000753791446323132</v>
+        <v>2.0488724907907</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01074045765229172</v>
       </c>
       <c r="I9">
-        <v>0.1559078706641053</v>
+        <v>0.01429106404689051</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.23645220521658</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.424041233741036</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.126535597182055</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2055578991019331</v>
       </c>
       <c r="O9">
-        <v>2.1670112198928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2508970923689802</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.600815320623155</v>
+        <v>1.286757666837445</v>
       </c>
       <c r="C10">
-        <v>1.794252024729474</v>
+        <v>0.216130799886372</v>
       </c>
       <c r="D10">
-        <v>0.3249875634724049</v>
+        <v>0.2915170197790218</v>
       </c>
       <c r="E10">
-        <v>2.340969501436433</v>
+        <v>0.0439750312416276</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007433957716444315</v>
+        <v>2.238748848789044</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.006487630979991277</v>
       </c>
       <c r="I10">
-        <v>0.1696848865121723</v>
+        <v>0.008749615151226742</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.31928529946515</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.523114146944266</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.347068191596975</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2301109537379915</v>
       </c>
       <c r="O10">
-        <v>2.576069302995023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2918692821655426</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.015247932544298</v>
+        <v>1.374434381353467</v>
       </c>
       <c r="C11">
-        <v>1.926582900168853</v>
+        <v>0.2587274828300252</v>
       </c>
       <c r="D11">
-        <v>0.3506100303522004</v>
+        <v>0.3129881864199433</v>
       </c>
       <c r="E11">
-        <v>2.542788368563095</v>
+        <v>0.0314705598655074</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007387139962687264</v>
+        <v>1.935443492110068</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02497159269092819</v>
       </c>
       <c r="I11">
-        <v>0.1784109804333909</v>
+        <v>0.008191619040378129</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.160338911811891</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.29875096159418</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.48777669996673</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1487792087987074</v>
       </c>
       <c r="O11">
-        <v>2.778050301629207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2648357279708833</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.173008160351287</v>
+        <v>1.406834664946842</v>
       </c>
       <c r="C12">
-        <v>1.977008386573345</v>
+        <v>0.2874506208047052</v>
       </c>
       <c r="D12">
-        <v>0.3604153763353963</v>
+        <v>0.3209820061382516</v>
       </c>
       <c r="E12">
-        <v>2.620690591267334</v>
+        <v>0.02738785433979052</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007369457014418523</v>
+        <v>1.671984844126712</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06399143792845763</v>
       </c>
       <c r="I12">
-        <v>0.1821167962596171</v>
+        <v>0.008095485831035809</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.0247021361252</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.114902349993173</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.560340462262388</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.09102734843167326</v>
       </c>
       <c r="O12">
-        <v>2.857168709640007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2347978566647413</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.138992462965348</v>
+        <v>1.396998779102432</v>
       </c>
       <c r="C13">
-        <v>1.966133357113222</v>
+        <v>0.3080495656033975</v>
       </c>
       <c r="D13">
-        <v>0.3582987927837564</v>
+        <v>0.3188967691456099</v>
       </c>
       <c r="E13">
-        <v>2.603842676285737</v>
+        <v>0.02926385310239876</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007373263695080398</v>
+        <v>1.410075642956912</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1205280715927728</v>
       </c>
       <c r="I13">
-        <v>0.1812999983312942</v>
+        <v>0.008778248766724062</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.891999549110551</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9414627613985473</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.585212496285351</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04849543411748769</v>
       </c>
       <c r="O13">
-        <v>2.840006035907038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2008784547355731</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.028209533305414</v>
+        <v>1.370798219733189</v>
       </c>
       <c r="C14">
-        <v>1.93072477033121</v>
+        <v>0.3192668611853833</v>
       </c>
       <c r="D14">
-        <v>0.3514145712259023</v>
+        <v>0.3128813886319932</v>
       </c>
       <c r="E14">
-        <v>2.549166190229542</v>
+        <v>0.03418287816874432</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007385684392474717</v>
+        <v>1.22922135041253</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.170631222178983</v>
       </c>
       <c r="I14">
-        <v>0.1787075180769797</v>
+        <v>0.009744535313186198</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8011970556962353</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8263198488773895</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.581350083563279</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.02803003884715594</v>
       </c>
       <c r="O14">
-        <v>2.784504507314097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1758123334157453</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.960463794450163</v>
+        <v>1.355090051710278</v>
       </c>
       <c r="C15">
-        <v>1.909078812752909</v>
+        <v>0.3203788402667271</v>
       </c>
       <c r="D15">
-        <v>0.3472116375320979</v>
+        <v>0.3092709827253373</v>
       </c>
       <c r="E15">
-        <v>2.515876063485948</v>
+        <v>0.03571057053091309</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007393297701940914</v>
+        <v>1.181028658238333</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1834932505387883</v>
       </c>
       <c r="I15">
-        <v>0.1771733554354675</v>
+        <v>0.01032296485407258</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7774723019270482</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.796990182973218</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.570308416665029</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0242261121509646</v>
       </c>
       <c r="O15">
-        <v>2.750862140083512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1687588197475165</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.57383788965393</v>
+        <v>1.269053651730445</v>
       </c>
       <c r="C16">
-        <v>1.785644607312292</v>
+        <v>0.2991858672264129</v>
       </c>
       <c r="D16">
-        <v>0.3233265795045952</v>
+        <v>0.2889229547662495</v>
       </c>
       <c r="E16">
-        <v>2.327972043016345</v>
+        <v>0.03342617061430175</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007437025060346433</v>
+        <v>1.152712752707046</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1725787420371176</v>
       </c>
       <c r="I16">
-        <v>0.1691680447364803</v>
+        <v>0.01263544455956023</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.768386504417947</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.789522203328616</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.469169056043626</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.02386111349275488</v>
       </c>
       <c r="O16">
-        <v>2.563217858566077</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1590782371077744</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.337957316290726</v>
+        <v>1.217122369432644</v>
       </c>
       <c r="C17">
-        <v>1.710418129281834</v>
+        <v>0.2770115429320725</v>
       </c>
       <c r="D17">
-        <v>0.3088400376432929</v>
+        <v>0.2765993821877544</v>
       </c>
       <c r="E17">
-        <v>2.215043970446303</v>
+        <v>0.02842188423770153</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007463956669599749</v>
+        <v>1.224223074449299</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1358257874633608</v>
       </c>
       <c r="I17">
-        <v>0.1649189636121733</v>
+        <v>0.01396509520682887</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.8083682934115757</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8426852694239457</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.393993555858543</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03275016194530167</v>
       </c>
       <c r="O17">
-        <v>2.452408488438039</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1646465985728476</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.202716799979783</v>
+        <v>1.189090523763156</v>
       </c>
       <c r="C18">
-        <v>1.667314229318492</v>
+        <v>0.2514257155593924</v>
       </c>
       <c r="D18">
-        <v>0.3005640820093589</v>
+        <v>0.269670897020049</v>
       </c>
       <c r="E18">
-        <v>2.150872573595947</v>
+        <v>0.02395491592804921</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007479492992429047</v>
+        <v>1.405508609746306</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0831402738806446</v>
       </c>
       <c r="I18">
-        <v>0.1627032406978088</v>
+        <v>0.01404862601007384</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.902883574903953</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9665826764231298</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.332182607298392</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05866762884087962</v>
       </c>
       <c r="O18">
-        <v>2.390147054367361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1848231968848104</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.15699661269764</v>
+        <v>1.180772939996388</v>
       </c>
       <c r="C19">
-        <v>1.652746593294921</v>
+        <v>0.2282842420104458</v>
       </c>
       <c r="D19">
-        <v>0.2977712277402844</v>
+        <v>0.2675288137682656</v>
       </c>
       <c r="E19">
-        <v>2.129272382195211</v>
+        <v>0.02540533521319688</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007484761845338317</v>
+        <v>1.664993968847455</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0370214486676872</v>
       </c>
       <c r="I19">
-        <v>0.1619908756604715</v>
+        <v>0.01365538132832089</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.035491746480034</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.142802155641753</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.288178432393806</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.108816669862307</v>
       </c>
       <c r="O19">
-        <v>2.369309602880946</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2166880884715425</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.36302150462501</v>
+        <v>1.230904061397268</v>
       </c>
       <c r="C20">
-        <v>1.718408711353788</v>
+        <v>0.20857846096213</v>
       </c>
       <c r="D20">
-        <v>0.3103762222387445</v>
+        <v>0.2789016612714761</v>
       </c>
       <c r="E20">
-        <v>2.226982714813957</v>
+        <v>0.04241623643787662</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000746108514558079</v>
+        <v>2.158499629282034</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.007516855837691683</v>
       </c>
       <c r="I20">
-        <v>0.1653473369619753</v>
+        <v>0.01098652079055817</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.282164601166158</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.47525454454528</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.29179406991193</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2235553285873522</v>
       </c>
       <c r="O20">
-        <v>2.46404950234998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2807200886785068</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.060725529900537</v>
+        <v>1.388152479127854</v>
       </c>
       <c r="C21">
-        <v>1.941116091634626</v>
+        <v>0.2344902272278802</v>
       </c>
       <c r="D21">
-        <v>0.3534337178724769</v>
+        <v>0.3159457010299747</v>
       </c>
       <c r="E21">
-        <v>2.565183632774094</v>
+        <v>0.04934916587773941</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007382035077225874</v>
+        <v>2.380321117317607</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004302060102168825</v>
       </c>
       <c r="I21">
-        <v>0.1794576846539151</v>
+        <v>0.007209636557642618</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.384181583503079</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.603867712741604</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.455162861852102</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.261136300566335</v>
       </c>
       <c r="O21">
-        <v>2.800732208715118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3206217280413668</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.521599781279917</v>
+        <v>1.492149789519601</v>
       </c>
       <c r="C22">
-        <v>2.088535138979012</v>
+        <v>0.2521161416758559</v>
       </c>
       <c r="D22">
-        <v>0.3821811464837737</v>
+        <v>0.3404447912078581</v>
       </c>
       <c r="E22">
-        <v>2.794983397891272</v>
+        <v>0.0529211068965143</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007330626389225881</v>
+        <v>2.514843702538457</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002815413461382921</v>
       </c>
       <c r="I22">
-        <v>0.1910464758252566</v>
+        <v>0.005016404088681092</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.445597003334512</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.680620904226643</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.563876496327424</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2794973098188933</v>
       </c>
       <c r="O22">
-        <v>3.036314963863163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3441316657838129</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.275121161082211</v>
+        <v>1.437564219548506</v>
       </c>
       <c r="C23">
-        <v>2.009662780997417</v>
+        <v>0.2416800490282611</v>
       </c>
       <c r="D23">
-        <v>0.3667770857681489</v>
+        <v>0.3273520941480683</v>
       </c>
       <c r="E23">
-        <v>2.671436313349844</v>
+        <v>0.0511370301604348</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007358048945364005</v>
+        <v>2.453845819978113</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003554797955265476</v>
       </c>
       <c r="I23">
-        <v>0.1846272269458353</v>
+        <v>0.005781345678547822</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.418263014086989</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.647519565823089</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.504748907911704</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2695223540762441</v>
       </c>
       <c r="O23">
-        <v>2.909030801084441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3316343690367631</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.351688842452177</v>
+        <v>1.230109507340103</v>
       </c>
       <c r="C24">
-        <v>1.714795722410088</v>
+        <v>0.2046954101135157</v>
       </c>
       <c r="D24">
-        <v>0.3096815506175545</v>
+        <v>0.2783584140428701</v>
       </c>
       <c r="E24">
-        <v>2.221582883522828</v>
+        <v>0.0442897888525593</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007462383194860227</v>
+        <v>2.206976679226329</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.007238123680751496</v>
       </c>
       <c r="I24">
-        <v>0.1651529654455786</v>
+        <v>0.01036027550928331</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.306788328821312</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.509876069756515</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.284213453070379</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2322494091633729</v>
       </c>
       <c r="O24">
-        <v>2.458782126707064</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2844066535279737</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.371673058815418</v>
+        <v>1.007749002943456</v>
       </c>
       <c r="C25">
-        <v>1.402847504792476</v>
+        <v>0.166412713062428</v>
       </c>
       <c r="D25">
-        <v>0.2502013061279769</v>
+        <v>0.2265971298170513</v>
       </c>
       <c r="E25">
-        <v>1.765527882225612</v>
+        <v>0.03709940856181326</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000757674811840208</v>
+        <v>1.944283495233805</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01288955139637576</v>
       </c>
       <c r="I25">
-        <v>0.1527284999403591</v>
+        <v>0.01751624153512754</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.188472816059431</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.362557846784711</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.049290329911599</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1924338318228962</v>
       </c>
       <c r="O25">
-        <v>2.028402375881768</v>
+        <v>0.2337973403991818</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.846995170271498</v>
+        <v>0.8190449677049685</v>
       </c>
       <c r="C2">
-        <v>0.1369316498441577</v>
+        <v>0.1678229560845637</v>
       </c>
       <c r="D2">
-        <v>0.1892203232587661</v>
+        <v>0.190052063065238</v>
       </c>
       <c r="E2">
-        <v>0.03221004790099613</v>
+        <v>0.02895503862899496</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.779376987347717</v>
+        <v>1.33523045666297</v>
       </c>
       <c r="H2">
-        <v>0.01826113084276948</v>
+        <v>0.01443148764233632</v>
       </c>
       <c r="I2">
-        <v>0.02352637557374671</v>
+        <v>0.01712686747353143</v>
       </c>
       <c r="J2">
-        <v>1.115953505136332</v>
+        <v>0.8890879465056969</v>
       </c>
       <c r="K2">
-        <v>1.273779456077911</v>
+        <v>0.939637915516002</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3746638036950429</v>
       </c>
       <c r="M2">
-        <v>0.8756502094501002</v>
+        <v>0.3293929970123486</v>
       </c>
       <c r="N2">
-        <v>0.1629474578575625</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1968498609230345</v>
+        <v>0.9255981387061922</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1778044868104232</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1955100519500554</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7370151146683384</v>
+        <v>0.7137435856743366</v>
       </c>
       <c r="C3">
-        <v>0.1188130681036625</v>
+        <v>0.1436410714807295</v>
       </c>
       <c r="D3">
-        <v>0.1642232873906551</v>
+        <v>0.165024943464374</v>
       </c>
       <c r="E3">
-        <v>0.02875944081208814</v>
+        <v>0.02628922637212039</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.65332611764552</v>
+        <v>1.267039711051396</v>
       </c>
       <c r="H3">
-        <v>0.02266577379791068</v>
+        <v>0.01794034722400595</v>
       </c>
       <c r="I3">
-        <v>0.02903927809055551</v>
+        <v>0.02113972273494902</v>
       </c>
       <c r="J3">
-        <v>1.05968137171601</v>
+        <v>0.8524644151229381</v>
       </c>
       <c r="K3">
-        <v>1.2027029149748</v>
+        <v>0.9058375744464797</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3692503728101002</v>
       </c>
       <c r="M3">
-        <v>0.7602394459971151</v>
+        <v>0.3112239874334293</v>
       </c>
       <c r="N3">
-        <v>0.1432771238281418</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1717971211127818</v>
+        <v>0.8033241835736078</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1572742533541529</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1706826493673077</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6695181204772496</v>
+        <v>0.6489759281584497</v>
       </c>
       <c r="C4">
-        <v>0.1079302743209354</v>
+        <v>0.1291177513733857</v>
       </c>
       <c r="D4">
-        <v>0.1490152458144678</v>
+        <v>0.1497855032690723</v>
       </c>
       <c r="E4">
-        <v>0.02664555223978304</v>
+        <v>0.02464707280115697</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.575800256531608</v>
+        <v>1.225112085135677</v>
       </c>
       <c r="H4">
-        <v>0.02570901090650168</v>
+        <v>0.0203686730909054</v>
       </c>
       <c r="I4">
-        <v>0.03287621813051711</v>
+        <v>0.0239534302609079</v>
       </c>
       <c r="J4">
-        <v>1.025121744130672</v>
+        <v>0.8296141841445319</v>
       </c>
       <c r="K4">
-        <v>1.158734016856478</v>
+        <v>0.8846888788773128</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3654981391702918</v>
       </c>
       <c r="M4">
-        <v>0.6897318583012009</v>
+        <v>0.3007388607735031</v>
       </c>
       <c r="N4">
-        <v>0.1312326389852103</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1564309419376642</v>
+        <v>0.7285181999710915</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1446959441931384</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1554395714291132</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6417900295292611</v>
+        <v>0.6223535798240789</v>
       </c>
       <c r="C5">
-        <v>0.1037894628268674</v>
+        <v>0.1235373738455792</v>
       </c>
       <c r="D5">
-        <v>0.1428474417044043</v>
+        <v>0.1436023192456304</v>
       </c>
       <c r="E5">
-        <v>0.02575364489678655</v>
+        <v>0.02395206758745072</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.541421938158237</v>
+        <v>1.205956618973701</v>
       </c>
       <c r="H5">
-        <v>0.02704181948945128</v>
+        <v>0.02143288875939309</v>
       </c>
       <c r="I5">
-        <v>0.03465585379005631</v>
+        <v>0.02529899050830231</v>
       </c>
       <c r="J5">
-        <v>1.00963467588366</v>
+        <v>0.8191308458924453</v>
       </c>
       <c r="K5">
-        <v>1.138733285568463</v>
+        <v>0.8745212749848505</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3632497587565666</v>
       </c>
       <c r="M5">
-        <v>0.6613360085070212</v>
+        <v>0.29616237917757</v>
       </c>
       <c r="N5">
-        <v>0.1263704884593082</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1501581528359743</v>
+        <v>0.6983254760104529</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1396099546284333</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1492151256753012</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6369128767953782</v>
+        <v>0.6176913783672546</v>
       </c>
       <c r="C6">
-        <v>0.103399690663565</v>
+        <v>0.1229384067498387</v>
       </c>
       <c r="D6">
-        <v>0.1418232163796063</v>
+        <v>0.1425756589356126</v>
       </c>
       <c r="E6">
-        <v>0.02556818464469046</v>
+        <v>0.0238076255411146</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.53236087025445</v>
+        <v>1.200276586334638</v>
       </c>
       <c r="H6">
-        <v>0.02728100743383033</v>
+        <v>0.02162363231894215</v>
       </c>
       <c r="I6">
-        <v>0.03509529722571614</v>
+        <v>0.02567558185874397</v>
       </c>
       <c r="J6">
-        <v>1.00535621208725</v>
+        <v>0.8160660883511923</v>
       </c>
       <c r="K6">
-        <v>1.132968379512718</v>
+        <v>0.8710589596056124</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3621244487547131</v>
       </c>
       <c r="M6">
-        <v>0.6569444773665793</v>
+        <v>0.2948367836978107</v>
       </c>
       <c r="N6">
-        <v>0.1256124385780595</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1491004807759602</v>
+        <v>0.6936019596475802</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1388082508230326</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1481672749613949</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.668394799172205</v>
+        <v>0.6482293844867684</v>
       </c>
       <c r="C7">
-        <v>0.1086799332351092</v>
+        <v>0.1295063513072989</v>
       </c>
       <c r="D7">
-        <v>0.1489266830926255</v>
+        <v>0.1496946160580848</v>
       </c>
       <c r="E7">
-        <v>0.02653114095846298</v>
+        <v>0.02457627650862282</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.566178012751152</v>
+        <v>1.220588132515289</v>
       </c>
       <c r="H7">
-        <v>0.02576059459474789</v>
+        <v>0.02042206742953911</v>
       </c>
       <c r="I7">
-        <v>0.03325545155504805</v>
+        <v>0.02437322544856624</v>
       </c>
       <c r="J7">
-        <v>1.020251465650801</v>
+        <v>0.8167959974180405</v>
       </c>
       <c r="K7">
-        <v>1.151798409657587</v>
+        <v>0.8773691518732392</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.362483831621482</v>
       </c>
       <c r="M7">
-        <v>0.6902207308061463</v>
+        <v>0.2982921200862663</v>
       </c>
       <c r="N7">
-        <v>0.1313012563197944</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1563017900259958</v>
+        <v>0.7284876490655563</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1446615116188212</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1553313913227292</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8080514181893932</v>
+        <v>0.7827709268734395</v>
       </c>
       <c r="C8">
-        <v>0.1317026604870364</v>
+        <v>0.159177260474678</v>
       </c>
       <c r="D8">
-        <v>0.180561357901567</v>
+        <v>0.181375838253885</v>
       </c>
       <c r="E8">
-        <v>0.03088135705061212</v>
+        <v>0.02799117130641804</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.723790109402103</v>
+        <v>1.311353012209139</v>
       </c>
       <c r="H8">
-        <v>0.01974530927590867</v>
+        <v>0.01564726782237608</v>
       </c>
       <c r="I8">
-        <v>0.02575258638975786</v>
+        <v>0.01894554462309372</v>
       </c>
       <c r="J8">
-        <v>1.090384643077329</v>
+        <v>0.8420445547480568</v>
       </c>
       <c r="K8">
-        <v>1.240507152002245</v>
+        <v>0.9140122149589018</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3673117006674502</v>
       </c>
       <c r="M8">
-        <v>0.8369275444891571</v>
+        <v>0.31805478372398</v>
       </c>
       <c r="N8">
-        <v>0.1563361297381931</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1881463516706994</v>
+        <v>0.8830389704875472</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1706005173287437</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1869437153544631</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.083920728131318</v>
+        <v>1.046197862961151</v>
       </c>
       <c r="C9">
-        <v>0.1776493767113436</v>
+        <v>0.2201877968612962</v>
       </c>
       <c r="D9">
-        <v>0.2439226883397509</v>
+        <v>0.2447117957976417</v>
       </c>
       <c r="E9">
-        <v>0.03969117999350225</v>
+        <v>0.0347622717141185</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.0488724907907</v>
+        <v>1.492200072340097</v>
       </c>
       <c r="H9">
-        <v>0.01074045765229172</v>
+        <v>0.008488916822073811</v>
       </c>
       <c r="I9">
-        <v>0.01429106404689051</v>
+        <v>0.01057000418492571</v>
       </c>
       <c r="J9">
-        <v>1.23645220521658</v>
+        <v>0.927521227529212</v>
       </c>
       <c r="K9">
-        <v>1.424041233741036</v>
+        <v>0.9998957364263745</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.38028869948009</v>
       </c>
       <c r="M9">
-        <v>1.126535597182055</v>
+        <v>0.3680715156576611</v>
       </c>
       <c r="N9">
-        <v>0.2055578991019331</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2508970923689802</v>
+        <v>1.188860613402142</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2218570108664153</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2490343093005656</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.286757666837445</v>
+        <v>1.241352673868647</v>
       </c>
       <c r="C10">
-        <v>0.216130799886372</v>
+        <v>0.2672974969590456</v>
       </c>
       <c r="D10">
-        <v>0.2915170197790218</v>
+        <v>0.2921636808118677</v>
       </c>
       <c r="E10">
-        <v>0.0439750312416276</v>
+        <v>0.03802169382753462</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.238748848789044</v>
+        <v>1.608286051373739</v>
       </c>
       <c r="H10">
-        <v>0.006487630979991277</v>
+        <v>0.005195421477292683</v>
       </c>
       <c r="I10">
-        <v>0.008749615151226742</v>
+        <v>0.006706844828844538</v>
       </c>
       <c r="J10">
-        <v>1.31928529946515</v>
+        <v>0.9220260324253218</v>
       </c>
       <c r="K10">
-        <v>1.523114146944266</v>
+        <v>1.026447141985599</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3754213328664235</v>
       </c>
       <c r="M10">
-        <v>1.347068191596975</v>
+        <v>0.3944952967520976</v>
       </c>
       <c r="N10">
-        <v>0.2301109537379915</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2918692821655426</v>
+        <v>1.41735772431619</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.246824030414615</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2895548707602345</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.374434381353467</v>
+        <v>1.335073278958703</v>
       </c>
       <c r="C11">
-        <v>0.2587274828300252</v>
+        <v>0.3058917324242714</v>
       </c>
       <c r="D11">
-        <v>0.3129881864199433</v>
+        <v>0.3136063076800895</v>
       </c>
       <c r="E11">
-        <v>0.0314705598655074</v>
+        <v>0.02851646943709563</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.935443492110068</v>
+        <v>1.425768710987313</v>
       </c>
       <c r="H11">
-        <v>0.02497159269092819</v>
+        <v>0.02379159268356901</v>
       </c>
       <c r="I11">
-        <v>0.008191619040378129</v>
+        <v>0.006590205492808643</v>
       </c>
       <c r="J11">
-        <v>1.160338911811891</v>
+        <v>0.7241833349696805</v>
       </c>
       <c r="K11">
-        <v>1.29875096159418</v>
+        <v>0.8531895375668128</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3087170405203921</v>
       </c>
       <c r="M11">
-        <v>1.48777669996673</v>
+        <v>0.3327354451242925</v>
       </c>
       <c r="N11">
-        <v>0.1487792087987074</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2648357279708833</v>
+        <v>1.550424247060221</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1608947929147462</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2629659137607128</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.406834664946842</v>
+        <v>1.373381210027048</v>
       </c>
       <c r="C12">
-        <v>0.2874506208047052</v>
+        <v>0.3295805943690198</v>
       </c>
       <c r="D12">
-        <v>0.3209820061382516</v>
+        <v>0.3216263291160431</v>
       </c>
       <c r="E12">
-        <v>0.02738785433979052</v>
+        <v>0.02650540340580654</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.671984844126712</v>
+        <v>1.25705076638981</v>
       </c>
       <c r="H12">
-        <v>0.06399143792845763</v>
+        <v>0.06277269033560628</v>
       </c>
       <c r="I12">
-        <v>0.008095485831035809</v>
+        <v>0.006504622922473224</v>
       </c>
       <c r="J12">
-        <v>1.0247021361252</v>
+        <v>0.608950607299775</v>
       </c>
       <c r="K12">
-        <v>1.114902349993173</v>
+        <v>0.7292882914549352</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2642967822120141</v>
       </c>
       <c r="M12">
-        <v>1.560340462262388</v>
+        <v>0.2849220512970092</v>
       </c>
       <c r="N12">
-        <v>0.09102734843167326</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2347978566647413</v>
+        <v>1.616038271614599</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1000357386973292</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2333144763523869</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.396998779102432</v>
+        <v>1.368995148026016</v>
       </c>
       <c r="C13">
-        <v>0.3080495656033975</v>
+        <v>0.3458219151341098</v>
       </c>
       <c r="D13">
-        <v>0.3188967691456099</v>
+        <v>0.3196277535878949</v>
       </c>
       <c r="E13">
-        <v>0.02926385310239876</v>
+        <v>0.03006226154876668</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.410075642956912</v>
+        <v>1.074639950128542</v>
       </c>
       <c r="H13">
-        <v>0.1205280715927728</v>
+        <v>0.1191249745226202</v>
       </c>
       <c r="I13">
-        <v>0.008778248766724062</v>
+        <v>0.006923804422758195</v>
       </c>
       <c r="J13">
-        <v>0.891999549110551</v>
+        <v>0.5462250859293931</v>
       </c>
       <c r="K13">
-        <v>0.9414627613985473</v>
+        <v>0.6296292248539501</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2307769568544913</v>
       </c>
       <c r="M13">
-        <v>1.585212496285351</v>
+        <v>0.2436881291997466</v>
       </c>
       <c r="N13">
-        <v>0.04849543411748769</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2008784547355731</v>
+        <v>1.635329501316704</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05524750948378454</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1997254013140228</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.370798219733189</v>
+        <v>1.346406054227259</v>
       </c>
       <c r="C14">
-        <v>0.3192668611853833</v>
+        <v>0.3542808903899299</v>
       </c>
       <c r="D14">
-        <v>0.3128813886319932</v>
+        <v>0.3136947661242857</v>
       </c>
       <c r="E14">
-        <v>0.03418287816874432</v>
+        <v>0.03600127926092789</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.22922135041253</v>
+        <v>0.9434124354729079</v>
       </c>
       <c r="H14">
-        <v>0.170631222178983</v>
+        <v>0.1690256429117767</v>
       </c>
       <c r="I14">
-        <v>0.009744535313186198</v>
+        <v>0.007580773528934159</v>
       </c>
       <c r="J14">
-        <v>0.8011970556962353</v>
+        <v>0.5199951132638603</v>
       </c>
       <c r="K14">
-        <v>0.8263198488773895</v>
+        <v>0.5694787282426432</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2113408784384205</v>
       </c>
       <c r="M14">
-        <v>1.581350083563279</v>
+        <v>0.2177058922877855</v>
       </c>
       <c r="N14">
-        <v>0.02803003884715594</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1758123334157453</v>
+        <v>1.628089614453756</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03352101798022744</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1748592386826537</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.355090051710278</v>
+        <v>1.331522511236216</v>
       </c>
       <c r="C15">
-        <v>0.3203788402667271</v>
+        <v>0.3549694828821544</v>
       </c>
       <c r="D15">
-        <v>0.3092709827253373</v>
+        <v>0.3101154329942801</v>
       </c>
       <c r="E15">
-        <v>0.03571057053091309</v>
+        <v>0.03779174267080698</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.181028658238333</v>
+        <v>0.9067510170445985</v>
       </c>
       <c r="H15">
-        <v>0.1834932505387883</v>
+        <v>0.1817939608954191</v>
       </c>
       <c r="I15">
-        <v>0.01032296485407258</v>
+        <v>0.008032171785472109</v>
       </c>
       <c r="J15">
-        <v>0.7774723019270482</v>
+        <v>0.5194881564846412</v>
       </c>
       <c r="K15">
-        <v>0.796990182973218</v>
+        <v>0.5563915358206089</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2074048348805348</v>
       </c>
       <c r="M15">
-        <v>1.570308416665029</v>
+        <v>0.2116206894310757</v>
       </c>
       <c r="N15">
-        <v>0.0242261121509646</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1687588197475165</v>
+        <v>1.616461339516121</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.02947625557878197</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1678494979861931</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.269053651730445</v>
+        <v>1.244973751331628</v>
       </c>
       <c r="C16">
-        <v>0.2991858672264129</v>
+        <v>0.3358893655438351</v>
       </c>
       <c r="D16">
-        <v>0.2889229547662495</v>
+        <v>0.2898601217572576</v>
       </c>
       <c r="E16">
-        <v>0.03342617061430175</v>
+        <v>0.03579334115741872</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.152712752707046</v>
+        <v>0.8747493087961686</v>
       </c>
       <c r="H16">
-        <v>0.1725787420371176</v>
+        <v>0.1704299290776135</v>
       </c>
       <c r="I16">
-        <v>0.01263544455956023</v>
+        <v>0.009658532368478134</v>
       </c>
       <c r="J16">
-        <v>0.768386504417947</v>
+        <v>0.5774711215979664</v>
       </c>
       <c r="K16">
-        <v>0.789522203328616</v>
+        <v>0.574241882391469</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2163098958812775</v>
       </c>
       <c r="M16">
-        <v>1.469169056043626</v>
+        <v>0.2149515018371702</v>
       </c>
       <c r="N16">
-        <v>0.02386111349275488</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1590782371077744</v>
+        <v>1.51738514239949</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.02957420786929887</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.158146239015803</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.217122369432644</v>
+        <v>1.191231172035941</v>
       </c>
       <c r="C17">
-        <v>0.2770115429320725</v>
+        <v>0.3158565688412409</v>
       </c>
       <c r="D17">
-        <v>0.2765993821877544</v>
+        <v>0.2775549534529063</v>
       </c>
       <c r="E17">
-        <v>0.02842188423770153</v>
+        <v>0.03037229314187329</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.224223074449299</v>
+        <v>0.9199462324932739</v>
       </c>
       <c r="H17">
-        <v>0.1358257874633608</v>
+        <v>0.133439496572862</v>
       </c>
       <c r="I17">
-        <v>0.01396509520682887</v>
+        <v>0.01062791275059993</v>
       </c>
       <c r="J17">
-        <v>0.8083682934115757</v>
+        <v>0.6336818573072236</v>
       </c>
       <c r="K17">
-        <v>0.8426852694239457</v>
+        <v>0.6186099614832798</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2337324749893739</v>
       </c>
       <c r="M17">
-        <v>1.393993555858543</v>
+        <v>0.2301823653371287</v>
       </c>
       <c r="N17">
-        <v>0.03275016194530167</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1646465985728476</v>
+        <v>1.444775592252142</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.03953532443449248</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1636156648904077</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.189090523763156</v>
+        <v>1.159442427243079</v>
       </c>
       <c r="C18">
-        <v>0.2514257155593924</v>
+        <v>0.2933993614575172</v>
       </c>
       <c r="D18">
-        <v>0.269670897020049</v>
+        <v>0.2705995757274877</v>
       </c>
       <c r="E18">
-        <v>0.02395491592804921</v>
+        <v>0.02467754497337715</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.405508609746306</v>
+        <v>1.042093628673712</v>
       </c>
       <c r="H18">
-        <v>0.0831402738806446</v>
+        <v>0.08072915422574312</v>
       </c>
       <c r="I18">
-        <v>0.01404862601007384</v>
+        <v>0.01060020199023093</v>
       </c>
       <c r="J18">
-        <v>0.902883574903953</v>
+        <v>0.7115895967525887</v>
       </c>
       <c r="K18">
-        <v>0.9665826764231298</v>
+        <v>0.7026137015559257</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2649644276965937</v>
       </c>
       <c r="M18">
-        <v>1.332182607298392</v>
+        <v>0.261549403224727</v>
       </c>
       <c r="N18">
-        <v>0.05866762884087962</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1848231968848104</v>
+        <v>1.387285050240223</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.06746120761945207</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1835792211797873</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.180772939996388</v>
+        <v>1.146076879417734</v>
       </c>
       <c r="C19">
-        <v>0.2282842420104458</v>
+        <v>0.273829473615379</v>
       </c>
       <c r="D19">
-        <v>0.2675288137682656</v>
+        <v>0.268399950440255</v>
       </c>
       <c r="E19">
-        <v>0.02540533521319688</v>
+        <v>0.02405551771536052</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.664993968847455</v>
+        <v>1.215915738365879</v>
       </c>
       <c r="H19">
-        <v>0.0370214486676872</v>
+        <v>0.034794001851985</v>
       </c>
       <c r="I19">
-        <v>0.01365538132832089</v>
+        <v>0.01042975889866149</v>
       </c>
       <c r="J19">
-        <v>1.035491746480034</v>
+        <v>0.8057755498352606</v>
       </c>
       <c r="K19">
-        <v>1.142802155641753</v>
+        <v>0.8155123619025346</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3061493515039402</v>
       </c>
       <c r="M19">
-        <v>1.288178432393806</v>
+        <v>0.3047828842539104</v>
       </c>
       <c r="N19">
-        <v>0.108816669862307</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2166880884715425</v>
+        <v>1.348713579483018</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1205283883206576</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2151285096309401</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.230904061397268</v>
+        <v>1.186973220482457</v>
       </c>
       <c r="C20">
-        <v>0.20857846096213</v>
+        <v>0.2593665234643225</v>
       </c>
       <c r="D20">
-        <v>0.2789016612714761</v>
+        <v>0.2796176894967459</v>
       </c>
       <c r="E20">
-        <v>0.04241623643787662</v>
+        <v>0.03677601172609712</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.158499629282034</v>
+        <v>1.546282145132977</v>
       </c>
       <c r="H20">
-        <v>0.007516855837691683</v>
+        <v>0.005966377698575887</v>
       </c>
       <c r="I20">
-        <v>0.01098652079055817</v>
+        <v>0.008651989332185472</v>
       </c>
       <c r="J20">
-        <v>1.282164601166158</v>
+        <v>0.943339198340766</v>
       </c>
       <c r="K20">
-        <v>1.47525454454528</v>
+        <v>1.012621602424083</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3742317789285039</v>
       </c>
       <c r="M20">
-        <v>1.29179406991193</v>
+        <v>0.3847144706920034</v>
       </c>
       <c r="N20">
-        <v>0.2235553285873522</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2807200886785068</v>
+        <v>1.361337440180961</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2403932761515364</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2785050389676798</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.388152479127854</v>
+        <v>1.341976689604394</v>
       </c>
       <c r="C21">
-        <v>0.2344902272278802</v>
+        <v>0.2838542211112411</v>
       </c>
       <c r="D21">
-        <v>0.3159457010299747</v>
+        <v>0.3163938205940156</v>
       </c>
       <c r="E21">
-        <v>0.04934916587773941</v>
+        <v>0.04258074755826335</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.380321117317607</v>
+        <v>1.738752170087594</v>
       </c>
       <c r="H21">
-        <v>0.004302060102168825</v>
+        <v>0.003488071955119021</v>
       </c>
       <c r="I21">
-        <v>0.007209636557642618</v>
+        <v>0.006095785983655233</v>
       </c>
       <c r="J21">
-        <v>1.384181583503079</v>
+        <v>0.8110506052729392</v>
       </c>
       <c r="K21">
-        <v>1.603867712741604</v>
+        <v>1.023606089660753</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3673664944616775</v>
       </c>
       <c r="M21">
-        <v>1.455162861852102</v>
+        <v>0.4019320015544494</v>
       </c>
       <c r="N21">
-        <v>0.261136300566335</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3206217280413668</v>
+        <v>1.523349052602725</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2774552095110749</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3181827967914543</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.492149789519601</v>
+        <v>1.445058979033746</v>
       </c>
       <c r="C22">
-        <v>0.2521161416758559</v>
+        <v>0.2996285731587278</v>
       </c>
       <c r="D22">
-        <v>0.3404447912078581</v>
+        <v>0.3406759676540929</v>
       </c>
       <c r="E22">
-        <v>0.0529211068965143</v>
+        <v>0.04564384707245139</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.514843702538457</v>
+        <v>1.865534965362087</v>
       </c>
       <c r="H22">
-        <v>0.002815413461382921</v>
+        <v>0.002346975553651598</v>
       </c>
       <c r="I22">
-        <v>0.005016404088681092</v>
+        <v>0.00443327445275532</v>
       </c>
       <c r="J22">
-        <v>1.445597003334512</v>
+        <v>0.7207311176591276</v>
       </c>
       <c r="K22">
-        <v>1.680620904226643</v>
+        <v>1.023199039480424</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3603740439052388</v>
       </c>
       <c r="M22">
-        <v>1.563876496327424</v>
+        <v>0.4104912801220095</v>
       </c>
       <c r="N22">
-        <v>0.2794973098188933</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3441316657838129</v>
+        <v>1.629872723899609</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2950554140744401</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3415627156407339</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.437564219548506</v>
+        <v>1.390097586280774</v>
       </c>
       <c r="C23">
-        <v>0.2416800490282611</v>
+        <v>0.2912606328483207</v>
       </c>
       <c r="D23">
-        <v>0.3273520941480683</v>
+        <v>0.3277124312011921</v>
       </c>
       <c r="E23">
-        <v>0.0511370301604348</v>
+        <v>0.04404145579277241</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.453845819978113</v>
+        <v>1.797984880789727</v>
       </c>
       <c r="H23">
-        <v>0.003554797955265476</v>
+        <v>0.002908102100207532</v>
       </c>
       <c r="I23">
-        <v>0.005781345678547822</v>
+        <v>0.004863759762017139</v>
       </c>
       <c r="J23">
-        <v>1.418263014086989</v>
+        <v>0.7903790535066406</v>
       </c>
       <c r="K23">
-        <v>1.647519565823089</v>
+        <v>1.03439297400508</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3678675219510694</v>
       </c>
       <c r="M23">
-        <v>1.504748907911704</v>
+        <v>0.4103393278742402</v>
       </c>
       <c r="N23">
-        <v>0.2695223540762441</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3316343690367631</v>
+        <v>1.573205941900653</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2857329778784248</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3290911288796039</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.230109507340103</v>
+        <v>1.185476017109977</v>
       </c>
       <c r="C24">
-        <v>0.2046954101135157</v>
+        <v>0.2554658783676018</v>
       </c>
       <c r="D24">
-        <v>0.2783584140428701</v>
+        <v>0.279064534804732</v>
       </c>
       <c r="E24">
-        <v>0.0442897888525593</v>
+        <v>0.03827876419883935</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.206976679226329</v>
+        <v>1.579215564678833</v>
       </c>
       <c r="H24">
-        <v>0.007238123680751496</v>
+        <v>0.005715793134700164</v>
       </c>
       <c r="I24">
-        <v>0.01036027550928331</v>
+        <v>0.007955501803204257</v>
       </c>
       <c r="J24">
-        <v>1.306788328821312</v>
+        <v>0.9619064134658117</v>
       </c>
       <c r="K24">
-        <v>1.509876069756515</v>
+        <v>1.03568887245779</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3826987667589492</v>
       </c>
       <c r="M24">
-        <v>1.284213453070379</v>
+        <v>0.3934961499401908</v>
       </c>
       <c r="N24">
-        <v>0.2322494091633729</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2844066535279737</v>
+        <v>1.354391903851081</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2495181709394956</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.282137622509488</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.007749002943456</v>
+        <v>0.9733447251098539</v>
       </c>
       <c r="C25">
-        <v>0.166412713062428</v>
+        <v>0.205603496967953</v>
       </c>
       <c r="D25">
-        <v>0.2265971298170513</v>
+        <v>0.2274179800711238</v>
       </c>
       <c r="E25">
-        <v>0.03709940856181326</v>
+        <v>0.0327559287046757</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.944283495233805</v>
+        <v>1.427357686487142</v>
       </c>
       <c r="H25">
-        <v>0.01288955139637576</v>
+        <v>0.01018141169264909</v>
       </c>
       <c r="I25">
-        <v>0.01751624153512754</v>
+        <v>0.01310890642542795</v>
       </c>
       <c r="J25">
-        <v>1.188472816059431</v>
+        <v>0.9111490982043762</v>
       </c>
       <c r="K25">
-        <v>1.362557846784711</v>
+        <v>0.9718400408436096</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3752084480350604</v>
       </c>
       <c r="M25">
-        <v>1.049290329911599</v>
+        <v>0.3520394147993926</v>
       </c>
       <c r="N25">
-        <v>0.1924338318228962</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2337973403991818</v>
+        <v>1.107789390612311</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2082832233806471</v>
       </c>
       <c r="Q25">
+        <v>0.2321218115876142</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
